--- a/BackTest/2019-10-21 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-21 BackTest LAMB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>29.35</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>29.37</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.899999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>7.692307692307819</v>
+      </c>
       <c r="L14" t="n">
         <v>29.35</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.099999999999998</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>29.38</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-7.692307692307819</v>
+      </c>
       <c r="L16" t="n">
         <v>29.37</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.300000000000001</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>27.27272727272739</v>
+      </c>
       <c r="L17" t="n">
         <v>29.37</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.400000000000002</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>20.00000000000028</v>
+      </c>
       <c r="L18" t="n">
         <v>29.41</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.5</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>39.99999999999986</v>
+      </c>
       <c r="L19" t="n">
         <v>29.44</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.600000000000001</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>45.4545454545454</v>
+      </c>
       <c r="L20" t="n">
         <v>29.49</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.600000000000001</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>45.4545454545454</v>
+      </c>
       <c r="L21" t="n">
         <v>29.54</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.800000000000001</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>9.090909090909207</v>
+      </c>
       <c r="L22" t="n">
         <v>29.57</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.800000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>11.11111111111114</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>29.58000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>3.100000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>29.62</v>
@@ -1613,7 +1635,7 @@
         <v>3.400000000000002</v>
       </c>
       <c r="K27" t="n">
-        <v>-4.000000000000057</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L27" t="n">
         <v>29.62</v>
@@ -1662,7 +1684,7 @@
         <v>3.400000000000002</v>
       </c>
       <c r="K28" t="n">
-        <v>9.090909090909062</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>29.6</v>
@@ -1711,7 +1733,7 @@
         <v>3.400000000000002</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L29" t="n">
         <v>29.57</v>
@@ -1760,7 +1782,7 @@
         <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L30" t="n">
         <v>29.52</v>
@@ -1809,7 +1831,7 @@
         <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L31" t="n">
         <v>29.47</v>
@@ -1860,7 +1882,7 @@
         <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L32" t="n">
         <v>29.44</v>
@@ -1911,7 +1933,7 @@
         <v>3.5</v>
       </c>
       <c r="K33" t="n">
-        <v>-11.11111111111107</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>29.41</v>
@@ -1962,7 +1984,7 @@
         <v>3.5</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L34" t="n">
         <v>29.39</v>
@@ -2013,7 +2035,7 @@
         <v>3.600000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L35" t="n">
         <v>29.34</v>
@@ -2064,7 +2086,7 @@
         <v>3.600000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>-14.28571428571421</v>
+        <v>-100</v>
       </c>
       <c r="L36" t="n">
         <v>29.31</v>
@@ -2115,7 +2137,7 @@
         <v>3.600000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>-23.07692307692312</v>
+        <v>-100</v>
       </c>
       <c r="L37" t="n">
         <v>29.29</v>
@@ -2166,7 +2188,7 @@
         <v>3.700000000000003</v>
       </c>
       <c r="K38" t="n">
-        <v>-23.07692307692312</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L38" t="n">
         <v>29.28</v>
@@ -2217,7 +2239,7 @@
         <v>3.700000000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>-33.33333333333314</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>29.27</v>
@@ -2268,7 +2290,7 @@
         <v>3.700000000000003</v>
       </c>
       <c r="K40" t="n">
-        <v>-45.4545454545454</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>29.27</v>
@@ -2319,7 +2341,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>-6.666666666666761</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L41" t="n">
         <v>29.31</v>
@@ -2370,7 +2392,7 @@
         <v>4.5</v>
       </c>
       <c r="K42" t="n">
-        <v>-17.64705882352946</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>29.31</v>
@@ -2421,7 +2443,7 @@
         <v>4.5</v>
       </c>
       <c r="K43" t="n">
-        <v>-17.64705882352946</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>29.31</v>
@@ -2472,7 +2494,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>9.999999999999982</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L44" t="n">
         <v>29.35</v>
@@ -2523,7 +2545,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K45" t="n">
-        <v>-18.18181818181815</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L45" t="n">
         <v>29.36</v>
@@ -2574,7 +2596,7 @@
         <v>5.699999999999996</v>
       </c>
       <c r="K46" t="n">
-        <v>8.33333333333332</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L46" t="n">
         <v>29.41</v>
@@ -2625,7 +2647,7 @@
         <v>6.099999999999994</v>
       </c>
       <c r="K47" t="n">
-        <v>-3.703703703703635</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>29.42000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>6.099999999999994</v>
       </c>
       <c r="K48" t="n">
-        <v>-3.703703703703635</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>29.42000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>6.499999999999993</v>
       </c>
       <c r="K49" t="n">
-        <v>9.677419354838761</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L49" t="n">
         <v>29.46</v>
@@ -2778,7 +2800,7 @@
         <v>6.999999999999993</v>
       </c>
       <c r="K50" t="n">
-        <v>-2.857142857142903</v>
+        <v>-17.24137931034488</v>
       </c>
       <c r="L50" t="n">
         <v>29.45</v>
@@ -2829,7 +2851,7 @@
         <v>6.999999999999993</v>
       </c>
       <c r="K51" t="n">
-        <v>-2.857142857142903</v>
+        <v>-4.000000000000068</v>
       </c>
       <c r="L51" t="n">
         <v>29.4</v>
@@ -2880,7 +2902,7 @@
         <v>7.299999999999994</v>
       </c>
       <c r="K52" t="n">
-        <v>5.263157894736832</v>
+        <v>7.142857142857134</v>
       </c>
       <c r="L52" t="n">
         <v>29.42</v>
@@ -2931,7 +2953,7 @@
         <v>7.599999999999994</v>
       </c>
       <c r="K53" t="n">
-        <v>-2.43902439024394</v>
+        <v>-18.51851851851855</v>
       </c>
       <c r="L53" t="n">
         <v>29.41</v>
@@ -2982,7 +3004,7 @@
         <v>7.899999999999995</v>
       </c>
       <c r="K54" t="n">
-        <v>4.545454545454534</v>
+        <v>7.692307692307672</v>
       </c>
       <c r="L54" t="n">
         <v>29.39</v>
@@ -3033,7 +3055,7 @@
         <v>8.099999999999994</v>
       </c>
       <c r="K55" t="n">
-        <v>2.222222222222257</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L55" t="n">
         <v>29.39</v>
@@ -3084,7 +3106,7 @@
         <v>8.199999999999992</v>
       </c>
       <c r="K56" t="n">
-        <v>4.347826086956514</v>
+        <v>4.761904761904665</v>
       </c>
       <c r="L56" t="n">
         <v>29.36</v>
@@ -3135,7 +3157,7 @@
         <v>8.199999999999992</v>
       </c>
       <c r="K57" t="n">
-        <v>4.347826086956514</v>
+        <v>4.761904761904665</v>
       </c>
       <c r="L57" t="n">
         <v>29.36999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>8.29999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>-22.22222222222218</v>
       </c>
       <c r="L58" t="n">
         <v>29.36999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>8.399999999999988</v>
       </c>
       <c r="K59" t="n">
-        <v>2.127659574468046</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L59" t="n">
         <v>29.33999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>8.499999999999986</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L60" t="n">
         <v>29.34999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>8.499999999999986</v>
       </c>
       <c r="K61" t="n">
-        <v>-9.090909090909092</v>
+        <v>-16.66666666666671</v>
       </c>
       <c r="L61" t="n">
         <v>29.36</v>
@@ -3390,7 +3412,7 @@
         <v>8.599999999999984</v>
       </c>
       <c r="K62" t="n">
-        <v>2.43902439024386</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L62" t="n">
         <v>29.34999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>8.599999999999984</v>
       </c>
       <c r="K63" t="n">
-        <v>2.43902439024386</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L63" t="n">
         <v>29.36999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>8.699999999999982</v>
       </c>
       <c r="K64" t="n">
-        <v>-10.5263157894737</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>29.34999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>8.799999999999983</v>
       </c>
       <c r="K65" t="n">
-        <v>-2.85714285714291</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L65" t="n">
         <v>29.33999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>8.899999999999984</v>
       </c>
       <c r="K66" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L66" t="n">
         <v>29.32999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>8.899999999999984</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L68" t="n">
         <v>29.32</v>
@@ -3747,7 +3769,7 @@
         <v>8.899999999999984</v>
       </c>
       <c r="K69" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>29.31</v>
@@ -3798,7 +3820,7 @@
         <v>8.899999999999984</v>
       </c>
       <c r="K70" t="n">
-        <v>5.26315789473694</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>29.31</v>
@@ -3849,7 +3871,7 @@
         <v>8.999999999999982</v>
       </c>
       <c r="K71" t="n">
-        <v>10.00000000000002</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>29.32</v>
@@ -3900,7 +3922,7 @@
         <v>8.999999999999982</v>
       </c>
       <c r="K72" t="n">
-        <v>-5.882352941176594</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>29.32</v>
@@ -3951,7 +3973,7 @@
         <v>9.09999999999998</v>
       </c>
       <c r="K73" t="n">
-        <v>6.666666666666825</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>29.31</v>
@@ -4002,7 +4024,7 @@
         <v>9.199999999999978</v>
       </c>
       <c r="K74" t="n">
-        <v>-7.692307692307902</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L74" t="n">
         <v>29.32</v>
@@ -4053,7 +4075,7 @@
         <v>9.299999999999979</v>
       </c>
       <c r="K75" t="n">
-        <v>16.66666666666682</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L75" t="n">
         <v>29.35</v>
@@ -4104,7 +4126,7 @@
         <v>9.299999999999979</v>
       </c>
       <c r="K76" t="n">
-        <v>9.090909090909326</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L76" t="n">
         <v>29.37</v>
@@ -4155,7 +4177,7 @@
         <v>9.399999999999981</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L77" t="n">
         <v>29.38</v>
@@ -4206,7 +4228,7 @@
         <v>9.499999999999982</v>
       </c>
       <c r="K78" t="n">
-        <v>16.66666666666671</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>29.4</v>
@@ -4257,7 +4279,7 @@
         <v>9.499999999999982</v>
       </c>
       <c r="K79" t="n">
-        <v>9.090909090909268</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>29.41999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>9.599999999999984</v>
       </c>
       <c r="K80" t="n">
-        <v>27.27272727272739</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L80" t="n">
         <v>29.45</v>
@@ -4359,7 +4381,7 @@
         <v>9.599999999999984</v>
       </c>
       <c r="K81" t="n">
-        <v>27.27272727272739</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L81" t="n">
         <v>29.47</v>
@@ -4410,7 +4432,7 @@
         <v>9.699999999999982</v>
       </c>
       <c r="K82" t="n">
-        <v>27.27272727272739</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L82" t="n">
         <v>29.5</v>
@@ -4461,7 +4483,7 @@
         <v>9.899999999999981</v>
       </c>
       <c r="K83" t="n">
-        <v>7.692307692307819</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L83" t="n">
         <v>29.52</v>
@@ -4512,7 +4534,7 @@
         <v>10.09999999999998</v>
       </c>
       <c r="K84" t="n">
-        <v>28.5714285714285</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L84" t="n">
         <v>29.55</v>
@@ -4563,7 +4585,7 @@
         <v>10.29999999999998</v>
       </c>
       <c r="K85" t="n">
-        <v>20.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>29.55</v>
@@ -4614,7 +4636,7 @@
         <v>10.29999999999998</v>
       </c>
       <c r="K86" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L86" t="n">
         <v>29.55</v>
@@ -4665,7 +4687,7 @@
         <v>10.49999999999998</v>
       </c>
       <c r="K87" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
         <v>29.58</v>
@@ -4716,7 +4738,7 @@
         <v>10.49999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L88" t="n">
         <v>29.6</v>
@@ -4767,7 +4789,7 @@
         <v>10.59999999999998</v>
       </c>
       <c r="K89" t="n">
-        <v>29.41176470588243</v>
+        <v>20</v>
       </c>
       <c r="L89" t="n">
         <v>29.63</v>
@@ -4818,7 +4840,7 @@
         <v>10.59999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>29.41176470588243</v>
+        <v>20</v>
       </c>
       <c r="L90" t="n">
         <v>29.65</v>
@@ -4869,7 +4891,7 @@
         <v>10.59999999999998</v>
       </c>
       <c r="K91" t="n">
-        <v>25.00000000000017</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L91" t="n">
         <v>29.67</v>
@@ -4920,7 +4942,7 @@
         <v>10.59999999999998</v>
       </c>
       <c r="K92" t="n">
-        <v>25.00000000000017</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L92" t="n">
         <v>29.68</v>
@@ -4971,7 +4993,7 @@
         <v>10.69999999999998</v>
       </c>
       <c r="K93" t="n">
-        <v>37.49999999999991</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>29.72</v>
@@ -5022,7 +5044,7 @@
         <v>10.79999999999998</v>
       </c>
       <c r="K94" t="n">
-        <v>37.50000000000006</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
         <v>29.75</v>
@@ -5073,7 +5095,7 @@
         <v>10.99999999999998</v>
       </c>
       <c r="K95" t="n">
-        <v>17.64705882352946</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L95" t="n">
         <v>29.78</v>
@@ -5124,7 +5146,7 @@
         <v>11.19999999999998</v>
       </c>
       <c r="K96" t="n">
-        <v>5.263157894736921</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L96" t="n">
         <v>29.79</v>
@@ -5175,7 +5197,7 @@
         <v>11.49999999999998</v>
       </c>
       <c r="K97" t="n">
-        <v>23.80952380952387</v>
+        <v>20</v>
       </c>
       <c r="L97" t="n">
         <v>29.81</v>
@@ -5226,7 +5248,7 @@
         <v>11.69999999999997</v>
       </c>
       <c r="K98" t="n">
-        <v>9.090909090909092</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L98" t="n">
         <v>29.81</v>
@@ -5277,7 +5299,7 @@
         <v>11.69999999999997</v>
       </c>
       <c r="K99" t="n">
-        <v>9.090909090909092</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L99" t="n">
         <v>29.8</v>
@@ -5328,7 +5350,7 @@
         <v>11.89999999999997</v>
       </c>
       <c r="K100" t="n">
-        <v>13.0434782608695</v>
+        <v>7.692307692307566</v>
       </c>
       <c r="L100" t="n">
         <v>29.81</v>
@@ -5379,7 +5401,7 @@
         <v>12.19999999999997</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>-12.50000000000003</v>
       </c>
       <c r="L101" t="n">
         <v>29.79</v>
@@ -5430,7 +5452,7 @@
         <v>12.19999999999997</v>
       </c>
       <c r="K102" t="n">
-        <v>-3.999999999999932</v>
+        <v>-19.9999999999999</v>
       </c>
       <c r="L102" t="n">
         <v>29.77</v>
@@ -5481,7 +5503,7 @@
         <v>12.29999999999997</v>
       </c>
       <c r="K103" t="n">
-        <v>8.333333333333345</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L103" t="n">
         <v>29.75</v>
@@ -5532,7 +5554,7 @@
         <v>12.39999999999997</v>
       </c>
       <c r="K104" t="n">
-        <v>-4.347826086956454</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L104" t="n">
         <v>29.71</v>
@@ -5583,7 +5605,7 @@
         <v>12.49999999999996</v>
       </c>
       <c r="K105" t="n">
-        <v>9.09090909090912</v>
+        <v>7.692307692307608</v>
       </c>
       <c r="L105" t="n">
         <v>29.7</v>
@@ -5634,7 +5656,7 @@
         <v>12.49999999999996</v>
       </c>
       <c r="K106" t="n">
-        <v>9.09090909090912</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L106" t="n">
         <v>29.71</v>
@@ -5787,7 +5809,7 @@
         <v>12.49999999999996</v>
       </c>
       <c r="K109" t="n">
-        <v>-5.263157894736961</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L109" t="n">
         <v>29.69</v>
@@ -5838,7 +5860,7 @@
         <v>12.49999999999996</v>
       </c>
       <c r="K110" t="n">
-        <v>-5.263157894736961</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>29.67</v>
@@ -5889,7 +5911,7 @@
         <v>12.49999999999996</v>
       </c>
       <c r="K111" t="n">
-        <v>-5.263157894736961</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>29.68</v>
@@ -5940,7 +5962,7 @@
         <v>12.49999999999996</v>
       </c>
       <c r="K112" t="n">
-        <v>-5.263157894736961</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>29.68999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>12.69999999999996</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L113" t="n">
         <v>29.70999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>12.99999999999996</v>
       </c>
       <c r="K114" t="n">
-        <v>-18.18181818181827</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L114" t="n">
         <v>29.70999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>13.09999999999996</v>
       </c>
       <c r="K115" t="n">
-        <v>-4.761904761904875</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>29.70999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>13.29999999999996</v>
       </c>
       <c r="K116" t="n">
-        <v>14.28571428571428</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L116" t="n">
         <v>29.72999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>13.49999999999996</v>
       </c>
       <c r="K117" t="n">
-        <v>-10.00000000000005</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>29.72999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>13.69999999999996</v>
       </c>
       <c r="K118" t="n">
-        <v>10.00000000000005</v>
+        <v>16.66666666666671</v>
       </c>
       <c r="L118" t="n">
         <v>29.74999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>13.99999999999995</v>
       </c>
       <c r="K119" t="n">
-        <v>-4.347826086956468</v>
+        <v>-6.666666666666572</v>
       </c>
       <c r="L119" t="n">
         <v>29.73999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>13.99999999999995</v>
       </c>
       <c r="K120" t="n">
-        <v>-14.28571428571428</v>
+        <v>-6.666666666666572</v>
       </c>
       <c r="L120" t="n">
         <v>29.73</v>
@@ -6399,7 +6421,7 @@
         <v>13.99999999999995</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>-6.666666666666572</v>
       </c>
       <c r="L121" t="n">
         <v>29.72</v>
@@ -6450,7 +6472,7 @@
         <v>13.99999999999995</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>-23.07692307692303</v>
       </c>
       <c r="L122" t="n">
         <v>29.71</v>
@@ -6501,7 +6523,7 @@
         <v>14.19999999999995</v>
       </c>
       <c r="K123" t="n">
-        <v>5.263157894736961</v>
+        <v>16.66666666666671</v>
       </c>
       <c r="L123" t="n">
         <v>29.70000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>14.39999999999995</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>-7.692307692307566</v>
       </c>
       <c r="L124" t="n">
         <v>29.70000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>14.39999999999995</v>
       </c>
       <c r="K125" t="n">
-        <v>-5.263157894736763</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L125" t="n">
         <v>29.69000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>14.39999999999995</v>
       </c>
       <c r="K126" t="n">
-        <v>-5.263157894736763</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L126" t="n">
         <v>29.66000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>14.49999999999995</v>
       </c>
       <c r="K127" t="n">
-        <v>-10.00000000000002</v>
+        <v>-50</v>
       </c>
       <c r="L127" t="n">
         <v>29.64000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>14.79999999999995</v>
       </c>
       <c r="K128" t="n">
-        <v>4.347826086956602</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L128" t="n">
         <v>29.63000000000002</v>
@@ -6807,7 +6829,7 @@
         <v>14.89999999999996</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L129" t="n">
         <v>29.64000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>14.99999999999996</v>
       </c>
       <c r="K130" t="n">
-        <v>4.000000000000068</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L130" t="n">
         <v>29.66000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>15.19999999999996</v>
       </c>
       <c r="K131" t="n">
-        <v>-3.703703703703635</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>29.66000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>15.19999999999996</v>
       </c>
       <c r="K132" t="n">
-        <v>-3.703703703703635</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L132" t="n">
         <v>29.66000000000001</v>
@@ -7011,7 +7033,7 @@
         <v>15.29999999999996</v>
       </c>
       <c r="K133" t="n">
-        <v>-15.38461538461536</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L133" t="n">
         <v>29.63000000000001</v>
@@ -7062,7 +7084,7 @@
         <v>15.59999999999996</v>
       </c>
       <c r="K134" t="n">
-        <v>7.692307692307672</v>
+        <v>16.66666666666652</v>
       </c>
       <c r="L134" t="n">
         <v>29.65000000000001</v>
@@ -7113,7 +7135,7 @@
         <v>15.79999999999996</v>
       </c>
       <c r="K135" t="n">
-        <v>-3.703703703703626</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>29.65000000000001</v>
@@ -7164,7 +7186,7 @@
         <v>15.79999999999996</v>
       </c>
       <c r="K136" t="n">
-        <v>-11.99999999999989</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L136" t="n">
         <v>29.65000000000001</v>
@@ -7215,7 +7237,7 @@
         <v>15.79999999999996</v>
       </c>
       <c r="K137" t="n">
-        <v>-4.347826086956428</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L137" t="n">
         <v>29.66000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>15.79999999999996</v>
       </c>
       <c r="K138" t="n">
-        <v>-14.28571428571414</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L138" t="n">
         <v>29.64000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>15.79999999999996</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L139" t="n">
         <v>29.63000000000002</v>
@@ -7368,7 +7390,7 @@
         <v>15.89999999999996</v>
       </c>
       <c r="K140" t="n">
-        <v>5.263157894736723</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L140" t="n">
         <v>29.62000000000002</v>
@@ -7419,7 +7441,7 @@
         <v>16.09999999999996</v>
       </c>
       <c r="K141" t="n">
-        <v>-4.761904761904826</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L141" t="n">
         <v>29.61000000000001</v>
@@ -7470,7 +7492,7 @@
         <v>16.09999999999996</v>
       </c>
       <c r="K142" t="n">
-        <v>-4.761904761904826</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>29.60000000000001</v>
@@ -7521,7 +7543,7 @@
         <v>16.09999999999996</v>
       </c>
       <c r="K143" t="n">
-        <v>-15.78947368421055</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L143" t="n">
         <v>29.60000000000001</v>
@@ -7572,7 +7594,7 @@
         <v>16.09999999999996</v>
       </c>
       <c r="K144" t="n">
-        <v>-5.882352941176544</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L144" t="n">
         <v>29.57000000000001</v>
@@ -7623,7 +7645,7 @@
         <v>16.19999999999996</v>
       </c>
       <c r="K145" t="n">
-        <v>-11.11111111111124</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L145" t="n">
         <v>29.55</v>
@@ -7725,7 +7747,7 @@
         <v>16.59999999999996</v>
       </c>
       <c r="K147" t="n">
-        <v>-4.76190476190481</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L147" t="n">
         <v>29.53</v>
@@ -7776,7 +7798,7 @@
         <v>16.59999999999996</v>
       </c>
       <c r="K148" t="n">
-        <v>-22.22222222222224</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L148" t="n">
         <v>29.51</v>
@@ -7827,7 +7849,7 @@
         <v>16.59999999999996</v>
       </c>
       <c r="K149" t="n">
-        <v>-17.64705882352939</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L149" t="n">
         <v>29.48999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>16.59999999999996</v>
       </c>
       <c r="K150" t="n">
-        <v>-25.00000000000006</v>
+        <v>-20</v>
       </c>
       <c r="L150" t="n">
         <v>29.45999999999999</v>
@@ -7929,7 +7951,7 @@
         <v>16.89999999999996</v>
       </c>
       <c r="K151" t="n">
-        <v>5.882352941176324</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L151" t="n">
         <v>29.47999999999999</v>
@@ -7980,7 +8002,7 @@
         <v>17.29999999999996</v>
       </c>
       <c r="K152" t="n">
-        <v>-14.28571428571428</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L152" t="n">
         <v>29.45999999999999</v>
@@ -8031,7 +8053,7 @@
         <v>17.29999999999996</v>
       </c>
       <c r="K153" t="n">
-        <v>-9.999999999999947</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L153" t="n">
         <v>29.43999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>17.29999999999996</v>
       </c>
       <c r="K154" t="n">
-        <v>-29.41176470588231</v>
+        <v>-9.090909090908857</v>
       </c>
       <c r="L154" t="n">
         <v>29.41999999999999</v>
@@ -8133,7 +8155,7 @@
         <v>17.69999999999996</v>
       </c>
       <c r="K155" t="n">
-        <v>5.263157894736723</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L155" t="n">
         <v>29.45</v>
@@ -8184,7 +8206,7 @@
         <v>18.09999999999996</v>
       </c>
       <c r="K156" t="n">
-        <v>-13.04347826086959</v>
+        <v>-6.66666666666654</v>
       </c>
       <c r="L156" t="n">
         <v>29.41999999999999</v>
@@ -8235,7 +8257,7 @@
         <v>18.19999999999996</v>
       </c>
       <c r="K157" t="n">
-        <v>-16.66666666666674</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L157" t="n">
         <v>29.4</v>
@@ -8286,7 +8308,7 @@
         <v>18.19999999999996</v>
       </c>
       <c r="K158" t="n">
-        <v>-16.66666666666674</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L158" t="n">
         <v>29.38</v>
@@ -8337,7 +8359,7 @@
         <v>18.19999999999996</v>
       </c>
       <c r="K159" t="n">
-        <v>-16.66666666666674</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L159" t="n">
         <v>29.36</v>
@@ -8388,7 +8410,7 @@
         <v>18.19999999999996</v>
       </c>
       <c r="K160" t="n">
-        <v>-21.73913043478257</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L160" t="n">
         <v>29.34</v>
@@ -8439,7 +8461,7 @@
         <v>18.29999999999996</v>
       </c>
       <c r="K161" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>29.3</v>
@@ -8490,7 +8512,7 @@
         <v>18.39999999999996</v>
       </c>
       <c r="K162" t="n">
-        <v>-4.347826086956576</v>
+        <v>9.090909090908914</v>
       </c>
       <c r="L162" t="n">
         <v>29.31</v>
@@ -8541,7 +8563,7 @@
         <v>18.39999999999996</v>
       </c>
       <c r="K163" t="n">
-        <v>-4.347826086956576</v>
+        <v>9.090909090908914</v>
       </c>
       <c r="L163" t="n">
         <v>29.31999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>18.49999999999996</v>
       </c>
       <c r="K164" t="n">
-        <v>-8.333333333333297</v>
+        <v>-50</v>
       </c>
       <c r="L164" t="n">
         <v>29.31999999999999</v>
@@ -8643,7 +8665,7 @@
         <v>18.49999999999996</v>
       </c>
       <c r="K165" t="n">
-        <v>-4.347826086956428</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>29.27999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>18.49999999999996</v>
       </c>
       <c r="K166" t="n">
-        <v>-14.28571428571433</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L166" t="n">
         <v>29.27999999999999</v>
@@ -8745,7 +8767,7 @@
         <v>18.49999999999996</v>
       </c>
       <c r="K167" t="n">
-        <v>-5.263157894736744</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L167" t="n">
         <v>29.29</v>
@@ -8796,7 +8818,7 @@
         <v>18.59999999999996</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L168" t="n">
         <v>29.31</v>
@@ -8847,7 +8869,7 @@
         <v>18.79999999999995</v>
       </c>
       <c r="K169" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>29.31</v>
@@ -8898,7 +8920,7 @@
         <v>18.99999999999995</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L170" t="n">
         <v>29.32999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>19.09999999999995</v>
       </c>
       <c r="K171" t="n">
-        <v>-18.18181818181821</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L171" t="n">
         <v>29.32999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>19.19999999999995</v>
       </c>
       <c r="K172" t="n">
-        <v>-5.26315789473694</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L172" t="n">
         <v>29.31</v>
@@ -9051,7 +9073,7 @@
         <v>19.39999999999995</v>
       </c>
       <c r="K173" t="n">
-        <v>4.761904761904681</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L173" t="n">
         <v>29.31</v>
@@ -9153,7 +9175,7 @@
         <v>19.59999999999995</v>
       </c>
       <c r="K175" t="n">
-        <v>-15.78947368421066</v>
+        <v>9.090909090908973</v>
       </c>
       <c r="L175" t="n">
         <v>29.31999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>19.69999999999995</v>
       </c>
       <c r="K176" t="n">
-        <v>12.50000000000003</v>
+        <v>16.66666666666671</v>
       </c>
       <c r="L176" t="n">
         <v>29.33999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>19.69999999999995</v>
       </c>
       <c r="K177" t="n">
-        <v>20.00000000000019</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L177" t="n">
         <v>29.35999999999999</v>
@@ -9306,7 +9328,7 @@
         <v>19.79999999999995</v>
       </c>
       <c r="K178" t="n">
-        <v>12.50000000000003</v>
+        <v>20</v>
       </c>
       <c r="L178" t="n">
         <v>29.35999999999999</v>
@@ -9357,7 +9379,7 @@
         <v>19.79999999999995</v>
       </c>
       <c r="K179" t="n">
-        <v>12.50000000000003</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>29.37999999999999</v>
@@ -9408,7 +9430,7 @@
         <v>19.79999999999995</v>
       </c>
       <c r="K180" t="n">
-        <v>12.50000000000003</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L180" t="n">
         <v>29.37999999999999</v>
@@ -9459,7 +9481,7 @@
         <v>19.89999999999995</v>
       </c>
       <c r="K181" t="n">
-        <v>12.50000000000003</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L181" t="n">
         <v>29.39999999999999</v>
@@ -9510,7 +9532,7 @@
         <v>20.19999999999995</v>
       </c>
       <c r="K182" t="n">
-        <v>-11.11111111111111</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L182" t="n">
         <v>29.39999999999999</v>
@@ -9561,7 +9583,7 @@
         <v>20.29999999999995</v>
       </c>
       <c r="K183" t="n">
-        <v>-5.263157894736744</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>29.38999999999999</v>
@@ -9612,7 +9634,7 @@
         <v>20.39999999999995</v>
       </c>
       <c r="K184" t="n">
-        <v>5.263157894736744</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>29.39999999999999</v>
@@ -9663,7 +9685,7 @@
         <v>20.39999999999995</v>
       </c>
       <c r="K185" t="n">
-        <v>5.263157894736744</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L185" t="n">
         <v>29.39999999999999</v>
@@ -9714,7 +9736,7 @@
         <v>20.49999999999995</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L186" t="n">
         <v>29.37999999999999</v>
@@ -9765,7 +9787,7 @@
         <v>20.59999999999995</v>
       </c>
       <c r="K187" t="n">
-        <v>4.761904761904681</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>29.36999999999999</v>
@@ -9816,7 +9838,7 @@
         <v>20.79999999999995</v>
       </c>
       <c r="K188" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L188" t="n">
         <v>29.34999999999999</v>
@@ -9867,7 +9889,7 @@
         <v>20.79999999999995</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L189" t="n">
         <v>29.32999999999999</v>
@@ -9918,7 +9940,7 @@
         <v>20.79999999999995</v>
       </c>
       <c r="K190" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L190" t="n">
         <v>29.30999999999999</v>
@@ -9969,7 +9991,7 @@
         <v>20.89999999999995</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L191" t="n">
         <v>29.28999999999999</v>
@@ -10020,7 +10042,7 @@
         <v>20.99999999999995</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L192" t="n">
         <v>29.28999999999999</v>
@@ -10071,7 +10093,7 @@
         <v>21.09999999999995</v>
       </c>
       <c r="K193" t="n">
-        <v>-5.882352941176348</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L193" t="n">
         <v>29.28999999999999</v>
@@ -10122,7 +10144,7 @@
         <v>21.09999999999995</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L194" t="n">
         <v>29.27999999999999</v>
@@ -10173,7 +10195,7 @@
         <v>21.19999999999995</v>
       </c>
       <c r="K195" t="n">
-        <v>-12.49999999999992</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L195" t="n">
         <v>29.26</v>
@@ -10224,7 +10246,7 @@
         <v>21.29999999999995</v>
       </c>
       <c r="K196" t="n">
-        <v>-24.99999999999989</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L196" t="n">
         <v>29.24</v>
@@ -10275,7 +10297,7 @@
         <v>21.39999999999995</v>
       </c>
       <c r="K197" t="n">
-        <v>-17.64705882352946</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>29.22</v>
@@ -10326,7 +10348,7 @@
         <v>21.49999999999995</v>
       </c>
       <c r="K198" t="n">
-        <v>-5.882352941176348</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L198" t="n">
         <v>29.23</v>
@@ -10377,7 +10399,7 @@
         <v>21.49999999999995</v>
       </c>
       <c r="K199" t="n">
-        <v>-5.882352941176348</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L199" t="n">
         <v>29.24</v>
@@ -10428,7 +10450,7 @@
         <v>21.59999999999995</v>
       </c>
       <c r="K200" t="n">
-        <v>-11.11111111111107</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L200" t="n">
         <v>29.24</v>
@@ -10479,7 +10501,7 @@
         <v>21.59999999999995</v>
       </c>
       <c r="K201" t="n">
-        <v>-17.64705882352946</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>29.23</v>
@@ -10530,7 +10552,7 @@
         <v>21.59999999999995</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L202" t="n">
         <v>29.23</v>
@@ -10581,7 +10603,7 @@
         <v>21.89999999999995</v>
       </c>
       <c r="K203" t="n">
-        <v>12.49999999999997</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L203" t="n">
         <v>29.25</v>
@@ -10632,7 +10654,7 @@
         <v>22.09999999999995</v>
       </c>
       <c r="K204" t="n">
-        <v>-5.882352941176348</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L204" t="n">
         <v>29.25</v>
@@ -10683,7 +10705,7 @@
         <v>22.09999999999995</v>
       </c>
       <c r="K205" t="n">
-        <v>-5.882352941176348</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L205" t="n">
         <v>29.26</v>
@@ -10734,7 +10756,7 @@
         <v>22.09999999999995</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L206" t="n">
         <v>29.28</v>
@@ -10785,7 +10807,7 @@
         <v>22.09999999999995</v>
       </c>
       <c r="K207" t="n">
-        <v>-6.666666666666508</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>29.29</v>
@@ -10836,7 +10858,7 @@
         <v>22.19999999999995</v>
       </c>
       <c r="K208" t="n">
-        <v>14.28571428571421</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L208" t="n">
         <v>29.3</v>
@@ -10938,7 +10960,7 @@
         <v>22.49999999999995</v>
       </c>
       <c r="K210" t="n">
-        <v>5.882352941176544</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L210" t="n">
         <v>29.3</v>
@@ -10989,7 +11011,7 @@
         <v>22.49999999999995</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L211" t="n">
         <v>29.31</v>
@@ -11040,7 +11062,7 @@
         <v>22.49999999999995</v>
       </c>
       <c r="K212" t="n">
-        <v>6.666666666666761</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L212" t="n">
         <v>29.32</v>
@@ -11091,7 +11113,7 @@
         <v>22.59999999999995</v>
       </c>
       <c r="K213" t="n">
-        <v>-6.666666666666761</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L213" t="n">
         <v>29.29</v>
@@ -11142,7 +11164,7 @@
         <v>22.59999999999995</v>
       </c>
       <c r="K214" t="n">
-        <v>-6.666666666666761</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L214" t="n">
         <v>29.28</v>
@@ -11193,7 +11215,7 @@
         <v>22.79999999999995</v>
       </c>
       <c r="K215" t="n">
-        <v>12.49999999999997</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L215" t="n">
         <v>29.29</v>
@@ -11244,7 +11266,7 @@
         <v>22.99999999999995</v>
       </c>
       <c r="K216" t="n">
-        <v>5.882352941176348</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L216" t="n">
         <v>29.27999999999999</v>
@@ -11295,7 +11317,7 @@
         <v>23.09999999999995</v>
       </c>
       <c r="K217" t="n">
-        <v>5.882352941176544</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L217" t="n">
         <v>29.27999999999999</v>
@@ -11346,7 +11368,7 @@
         <v>23.19999999999995</v>
       </c>
       <c r="K218" t="n">
-        <v>-5.882352941176544</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>29.26</v>
@@ -11397,7 +11419,7 @@
         <v>23.19999999999995</v>
       </c>
       <c r="K219" t="n">
-        <v>-5.882352941176544</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L219" t="n">
         <v>29.26</v>
@@ -11448,7 +11470,7 @@
         <v>23.19999999999995</v>
       </c>
       <c r="K220" t="n">
-        <v>0</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L220" t="n">
         <v>29.24999999999999</v>
@@ -11499,7 +11521,7 @@
         <v>23.29999999999995</v>
       </c>
       <c r="K221" t="n">
-        <v>5.882352941176544</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>29.24999999999999</v>
@@ -11550,7 +11572,7 @@
         <v>23.29999999999995</v>
       </c>
       <c r="K222" t="n">
-        <v>5.882352941176544</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L222" t="n">
         <v>29.24999999999999</v>
@@ -11601,7 +11623,7 @@
         <v>23.49999999999995</v>
       </c>
       <c r="K223" t="n">
-        <v>-24.99999999999989</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L223" t="n">
         <v>29.24</v>
@@ -11652,7 +11674,7 @@
         <v>23.69999999999995</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L224" t="n">
         <v>29.25</v>
@@ -11703,7 +11725,7 @@
         <v>23.79999999999995</v>
       </c>
       <c r="K225" t="n">
-        <v>-5.882352941176544</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>29.23</v>
@@ -11754,7 +11776,7 @@
         <v>23.79999999999995</v>
       </c>
       <c r="K226" t="n">
-        <v>-5.882352941176544</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L226" t="n">
         <v>29.23</v>
@@ -11805,7 +11827,7 @@
         <v>23.79999999999995</v>
       </c>
       <c r="K227" t="n">
-        <v>-5.882352941176544</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>29.22</v>
@@ -11856,7 +11878,7 @@
         <v>23.89999999999996</v>
       </c>
       <c r="K228" t="n">
-        <v>-5.882352941176324</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L228" t="n">
         <v>29.23</v>
@@ -11907,7 +11929,7 @@
         <v>23.99999999999995</v>
       </c>
       <c r="K229" t="n">
-        <v>12.49999999999992</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L229" t="n">
         <v>29.25</v>
@@ -11958,7 +11980,7 @@
         <v>23.99999999999995</v>
       </c>
       <c r="K230" t="n">
-        <v>6.666666666666508</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L230" t="n">
         <v>29.27</v>
@@ -12009,7 +12031,7 @@
         <v>24.19999999999995</v>
       </c>
       <c r="K231" t="n">
-        <v>-5.882352941176544</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L231" t="n">
         <v>29.26</v>
@@ -12060,7 +12082,7 @@
         <v>24.39999999999995</v>
       </c>
       <c r="K232" t="n">
-        <v>5.263157894736723</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L232" t="n">
         <v>29.26999999999999</v>
@@ -12111,7 +12133,7 @@
         <v>24.49999999999995</v>
       </c>
       <c r="K233" t="n">
-        <v>5.263157894736921</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>29.28999999999999</v>
@@ -12162,7 +12184,7 @@
         <v>24.59999999999995</v>
       </c>
       <c r="K234" t="n">
-        <v>9.999999999999982</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L234" t="n">
         <v>29.29999999999999</v>
@@ -12213,7 +12235,7 @@
         <v>24.69999999999995</v>
       </c>
       <c r="K235" t="n">
-        <v>-5.263157894736744</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L235" t="n">
         <v>29.30999999999999</v>
@@ -12264,7 +12286,7 @@
         <v>24.79999999999994</v>
       </c>
       <c r="K236" t="n">
-        <v>11.11111111111111</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L236" t="n">
         <v>29.32999999999999</v>
@@ -12315,7 +12337,7 @@
         <v>24.99999999999994</v>
       </c>
       <c r="K237" t="n">
-        <v>-5.26315789473694</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L237" t="n">
         <v>29.32999999999999</v>
@@ -12366,7 +12388,7 @@
         <v>25.19999999999994</v>
       </c>
       <c r="K238" t="n">
-        <v>-10.00000000000002</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L238" t="n">
         <v>29.29999999999999</v>
@@ -12417,7 +12439,7 @@
         <v>25.29999999999994</v>
       </c>
       <c r="K239" t="n">
-        <v>-14.28571428571438</v>
+        <v>-38.46153846153876</v>
       </c>
       <c r="L239" t="n">
         <v>29.24999999999999</v>
@@ -12468,7 +12490,7 @@
         <v>25.39999999999995</v>
       </c>
       <c r="K240" t="n">
-        <v>-9.090909090909092</v>
+        <v>-16.66666666666671</v>
       </c>
       <c r="L240" t="n">
         <v>29.20999999999999</v>
@@ -12519,7 +12541,7 @@
         <v>25.69999999999995</v>
       </c>
       <c r="K241" t="n">
-        <v>0</v>
+        <v>-7.692307692307566</v>
       </c>
       <c r="L241" t="n">
         <v>29.21999999999999</v>
@@ -12570,7 +12592,7 @@
         <v>25.89999999999995</v>
       </c>
       <c r="K242" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L242" t="n">
         <v>29.19</v>
@@ -12621,7 +12643,7 @@
         <v>25.99999999999994</v>
       </c>
       <c r="K243" t="n">
-        <v>3.999999999999932</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L243" t="n">
         <v>29.18</v>
@@ -12672,7 +12694,7 @@
         <v>26.19999999999994</v>
       </c>
       <c r="K244" t="n">
-        <v>-12.00000000000008</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L244" t="n">
         <v>29.14</v>
@@ -12723,7 +12745,7 @@
         <v>26.19999999999994</v>
       </c>
       <c r="K245" t="n">
-        <v>-8.333333333333345</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L245" t="n">
         <v>29.11</v>
@@ -12774,7 +12796,7 @@
         <v>26.29999999999994</v>
       </c>
       <c r="K246" t="n">
-        <v>-3.999999999999932</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="L246" t="n">
         <v>29.08</v>
@@ -12825,7 +12847,7 @@
         <v>26.29999999999994</v>
       </c>
       <c r="K247" t="n">
-        <v>-3.999999999999932</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L247" t="n">
         <v>29.07</v>
@@ -12876,7 +12898,7 @@
         <v>26.39999999999994</v>
       </c>
       <c r="K248" t="n">
-        <v>-4.00000000000008</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L248" t="n">
         <v>29.09</v>
@@ -12927,7 +12949,7 @@
         <v>26.49999999999994</v>
       </c>
       <c r="K249" t="n">
-        <v>-3.999999999999932</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L249" t="n">
         <v>29.13000000000001</v>
@@ -12978,7 +13000,7 @@
         <v>26.59999999999994</v>
       </c>
       <c r="K250" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L250" t="n">
         <v>29.15000000000001</v>
@@ -13029,7 +13051,7 @@
         <v>26.59999999999994</v>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L251" t="n">
         <v>29.14</v>
@@ -13080,7 +13102,7 @@
         <v>26.69999999999994</v>
       </c>
       <c r="K252" t="n">
-        <v>-13.0434782608695</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L252" t="n">
         <v>29.14</v>
@@ -13131,7 +13153,7 @@
         <v>26.69999999999994</v>
       </c>
       <c r="K253" t="n">
-        <v>-9.090909090909092</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L253" t="n">
         <v>29.13000000000001</v>
@@ -13182,7 +13204,7 @@
         <v>26.89999999999994</v>
       </c>
       <c r="K254" t="n">
-        <v>-4.347826086956442</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L254" t="n">
         <v>29.16000000000001</v>
@@ -13233,7 +13255,7 @@
         <v>26.99999999999994</v>
       </c>
       <c r="K255" t="n">
-        <v>-4.347826086956589</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L255" t="n">
         <v>29.18000000000001</v>
@@ -13284,7 +13306,7 @@
         <v>26.99999999999994</v>
       </c>
       <c r="K256" t="n">
-        <v>-9.090909090909062</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L256" t="n">
         <v>29.19</v>
@@ -13386,7 +13408,7 @@
         <v>27.09999999999994</v>
       </c>
       <c r="K258" t="n">
-        <v>15.78947368421055</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>29.21</v>
@@ -13437,7 +13459,7 @@
         <v>27.19999999999995</v>
       </c>
       <c r="K259" t="n">
-        <v>15.78947368421055</v>
+        <v>0</v>
       </c>
       <c r="L259" t="n">
         <v>29.2</v>
@@ -13488,7 +13510,7 @@
         <v>27.19999999999995</v>
       </c>
       <c r="K260" t="n">
-        <v>11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>29.2</v>
@@ -13539,7 +13561,7 @@
         <v>27.39999999999995</v>
       </c>
       <c r="K261" t="n">
-        <v>-17.64705882352946</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L261" t="n">
         <v>29.18</v>
@@ -13590,7 +13612,7 @@
         <v>27.59999999999994</v>
       </c>
       <c r="K262" t="n">
-        <v>5.882352941176348</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L262" t="n">
         <v>29.19</v>
@@ -13641,7 +13663,7 @@
         <v>27.59999999999994</v>
       </c>
       <c r="K263" t="n">
-        <v>0</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L263" t="n">
         <v>29.2</v>
@@ -13692,7 +13714,7 @@
         <v>27.59999999999994</v>
       </c>
       <c r="K264" t="n">
-        <v>14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>29.18999999999999</v>
@@ -13743,7 +13765,7 @@
         <v>27.69999999999994</v>
       </c>
       <c r="K265" t="n">
-        <v>6.666666666666761</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L265" t="n">
         <v>29.18</v>
@@ -13794,7 +13816,7 @@
         <v>27.79999999999994</v>
       </c>
       <c r="K266" t="n">
-        <v>6.66666666666654</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>29.18</v>
@@ -13845,7 +13867,7 @@
         <v>27.89999999999994</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L267" t="n">
         <v>29.17</v>
@@ -13896,7 +13918,7 @@
         <v>27.89999999999994</v>
       </c>
       <c r="K268" t="n">
-        <v>-6.66666666666654</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L268" t="n">
         <v>29.15</v>
@@ -13947,7 +13969,7 @@
         <v>27.89999999999994</v>
       </c>
       <c r="K269" t="n">
-        <v>-14.28571428571428</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L269" t="n">
         <v>29.14</v>
@@ -13998,7 +14020,7 @@
         <v>27.89999999999994</v>
       </c>
       <c r="K270" t="n">
-        <v>-7.692307692307566</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L270" t="n">
         <v>29.13000000000001</v>
@@ -14049,7 +14071,7 @@
         <v>27.89999999999994</v>
       </c>
       <c r="K271" t="n">
-        <v>-7.692307692307566</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>29.14000000000001</v>
@@ -14100,7 +14122,7 @@
         <v>27.89999999999994</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L272" t="n">
         <v>29.13000000000001</v>
@@ -14151,7 +14173,7 @@
         <v>27.99999999999994</v>
       </c>
       <c r="K273" t="n">
-        <v>-7.692307692307819</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L273" t="n">
         <v>29.11000000000001</v>
@@ -14202,7 +14224,7 @@
         <v>28.09999999999994</v>
       </c>
       <c r="K274" t="n">
-        <v>-33.33333333333353</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L274" t="n">
         <v>29.08000000000001</v>
@@ -14304,7 +14326,7 @@
         <v>28.49999999999994</v>
       </c>
       <c r="K276" t="n">
-        <v>-6.66666666666654</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>29.08000000000001</v>
@@ -14355,7 +14377,7 @@
         <v>28.49999999999994</v>
       </c>
       <c r="K277" t="n">
-        <v>-6.66666666666654</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>29.08000000000001</v>
@@ -14406,7 +14428,7 @@
         <v>28.69999999999994</v>
       </c>
       <c r="K278" t="n">
-        <v>0</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L278" t="n">
         <v>29.10000000000001</v>
@@ -14457,7 +14479,7 @@
         <v>28.89999999999994</v>
       </c>
       <c r="K279" t="n">
-        <v>-5.882352941176372</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>29.10000000000001</v>
@@ -14508,7 +14530,7 @@
         <v>28.99999999999994</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>9.090909090908914</v>
       </c>
       <c r="L280" t="n">
         <v>29.11000000000001</v>
@@ -14559,7 +14581,7 @@
         <v>28.99999999999994</v>
       </c>
       <c r="K281" t="n">
-        <v>12.50000000000003</v>
+        <v>9.090909090908914</v>
       </c>
       <c r="L281" t="n">
         <v>29.12</v>
@@ -14610,7 +14632,7 @@
         <v>28.99999999999994</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L282" t="n">
         <v>29.13</v>
@@ -14661,7 +14683,7 @@
         <v>29.09999999999994</v>
       </c>
       <c r="K283" t="n">
-        <v>6.666666666666793</v>
+        <v>40.00000000000036</v>
       </c>
       <c r="L283" t="n">
         <v>29.16</v>
@@ -14712,7 +14734,7 @@
         <v>29.29999999999994</v>
       </c>
       <c r="K284" t="n">
-        <v>-5.882352941176372</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L284" t="n">
         <v>29.18000000000001</v>
@@ -14814,7 +14836,7 @@
         <v>29.29999999999994</v>
       </c>
       <c r="K286" t="n">
-        <v>-6.66666666666654</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>29.17000000000001</v>
@@ -14865,7 +14887,7 @@
         <v>29.49999999999994</v>
       </c>
       <c r="K287" t="n">
-        <v>12.49999999999997</v>
+        <v>0</v>
       </c>
       <c r="L287" t="n">
         <v>29.19000000000001</v>
@@ -14916,7 +14938,7 @@
         <v>29.49999999999994</v>
       </c>
       <c r="K288" t="n">
-        <v>12.49999999999997</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L288" t="n">
         <v>29.19000000000001</v>
@@ -14967,7 +14989,7 @@
         <v>29.49999999999994</v>
       </c>
       <c r="K289" t="n">
-        <v>12.49999999999997</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L289" t="n">
         <v>29.21000000000001</v>
@@ -15018,7 +15040,7 @@
         <v>29.49999999999994</v>
       </c>
       <c r="K290" t="n">
-        <v>12.49999999999997</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L290" t="n">
         <v>29.22000000000001</v>
@@ -15069,7 +15091,7 @@
         <v>29.69999999999994</v>
       </c>
       <c r="K291" t="n">
-        <v>22.22222222222218</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L291" t="n">
         <v>29.25000000000001</v>
@@ -15120,7 +15142,7 @@
         <v>29.79999999999994</v>
       </c>
       <c r="K292" t="n">
-        <v>26.31578947368423</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L292" t="n">
         <v>29.29000000000001</v>
@@ -15171,7 +15193,7 @@
         <v>29.89999999999994</v>
       </c>
       <c r="K293" t="n">
-        <v>26.31578947368423</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L293" t="n">
         <v>29.31000000000001</v>
@@ -15222,7 +15244,7 @@
         <v>29.89999999999994</v>
       </c>
       <c r="K294" t="n">
-        <v>33.33333333333346</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L294" t="n">
         <v>29.35000000000001</v>
@@ -15273,7 +15295,7 @@
         <v>29.89999999999994</v>
       </c>
       <c r="K295" t="n">
-        <v>20.0000000000001</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L295" t="n">
         <v>29.39000000000001</v>
@@ -15324,7 +15346,7 @@
         <v>29.89999999999994</v>
       </c>
       <c r="K296" t="n">
-        <v>28.5714285714285</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L296" t="n">
         <v>29.43000000000001</v>
@@ -15375,7 +15397,7 @@
         <v>29.89999999999994</v>
       </c>
       <c r="K297" t="n">
-        <v>28.5714285714285</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L297" t="n">
         <v>29.45000000000001</v>
@@ -15426,7 +15448,7 @@
         <v>29.89999999999994</v>
       </c>
       <c r="K298" t="n">
-        <v>16.66666666666662</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L298" t="n">
         <v>29.47000000000001</v>
@@ -15477,7 +15499,7 @@
         <v>29.89999999999994</v>
       </c>
       <c r="K299" t="n">
-        <v>39.99999999999986</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L299" t="n">
         <v>29.49</v>
@@ -15528,7 +15550,7 @@
         <v>29.89999999999994</v>
       </c>
       <c r="K300" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>29.51</v>
@@ -15579,7 +15601,7 @@
         <v>29.89999999999994</v>
       </c>
       <c r="K301" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L301" t="n">
         <v>29.51</v>
@@ -15629,9 +15651,7 @@
       <c r="J302" t="n">
         <v>29.89999999999994</v>
       </c>
-      <c r="K302" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>29.5</v>
       </c>
@@ -15680,9 +15700,7 @@
       <c r="J303" t="n">
         <v>29.89999999999994</v>
       </c>
-      <c r="K303" t="n">
-        <v>24.99999999999989</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>29.5</v>
       </c>
@@ -15732,7 +15750,7 @@
         <v>30.09999999999994</v>
       </c>
       <c r="K304" t="n">
-        <v>24.99999999999989</v>
+        <v>-100</v>
       </c>
       <c r="L304" t="n">
         <v>29.48</v>
@@ -15783,7 +15801,7 @@
         <v>30.29999999999994</v>
       </c>
       <c r="K305" t="n">
-        <v>39.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>29.48</v>
@@ -15834,7 +15852,7 @@
         <v>30.49999999999994</v>
       </c>
       <c r="K306" t="n">
-        <v>16.66666666666662</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L306" t="n">
         <v>29.46</v>
@@ -15885,7 +15903,7 @@
         <v>30.69999999999994</v>
       </c>
       <c r="K307" t="n">
-        <v>16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>29.46</v>
@@ -15936,7 +15954,7 @@
         <v>30.99999999999994</v>
       </c>
       <c r="K308" t="n">
-        <v>-6.666666666666761</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L308" t="n">
         <v>29.43</v>
@@ -15987,7 +16005,7 @@
         <v>31.19999999999994</v>
       </c>
       <c r="K309" t="n">
-        <v>5.882352941176348</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L309" t="n">
         <v>29.42</v>
@@ -16038,7 +16056,7 @@
         <v>31.29999999999993</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L310" t="n">
         <v>29.4</v>
@@ -16089,7 +16107,7 @@
         <v>31.39999999999993</v>
       </c>
       <c r="K311" t="n">
-        <v>-17.64705882352946</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L311" t="n">
         <v>29.37</v>
@@ -16140,7 +16158,7 @@
         <v>31.59999999999993</v>
       </c>
       <c r="K312" t="n">
-        <v>-33.33333333333346</v>
+        <v>-29.41176470588243</v>
       </c>
       <c r="L312" t="n">
         <v>29.32</v>
@@ -16191,7 +16209,7 @@
         <v>31.79999999999993</v>
       </c>
       <c r="K313" t="n">
-        <v>-15.78947368421061</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L313" t="n">
         <v>29.29</v>
@@ -16242,7 +16260,7 @@
         <v>31.79999999999993</v>
       </c>
       <c r="K314" t="n">
-        <v>-15.78947368421061</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L314" t="n">
         <v>29.27999999999999</v>
@@ -16293,7 +16311,7 @@
         <v>31.89999999999993</v>
       </c>
       <c r="K315" t="n">
-        <v>-9.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>29.26</v>
@@ -16344,7 +16362,7 @@
         <v>32.19999999999993</v>
       </c>
       <c r="K316" t="n">
-        <v>-21.73913043478267</v>
+        <v>-33.33333333333341</v>
       </c>
       <c r="L316" t="n">
         <v>29.23</v>
@@ -16395,7 +16413,7 @@
         <v>32.49999999999993</v>
       </c>
       <c r="K317" t="n">
-        <v>-7.692307692307693</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L317" t="n">
         <v>29.21</v>
@@ -16446,7 +16464,7 @@
         <v>32.69999999999993</v>
       </c>
       <c r="K318" t="n">
-        <v>-14.28571428571427</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L318" t="n">
         <v>29.2</v>
@@ -16497,7 +16515,7 @@
         <v>32.89999999999993</v>
       </c>
       <c r="K319" t="n">
-        <v>-6.666666666666651</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>29.19</v>
@@ -16548,7 +16566,7 @@
         <v>33.09999999999994</v>
       </c>
       <c r="K320" t="n">
-        <v>-12.49999999999996</v>
+        <v>-5.882352941176335</v>
       </c>
       <c r="L320" t="n">
         <v>29.17000000000001</v>
@@ -16599,7 +16617,7 @@
         <v>33.09999999999994</v>
       </c>
       <c r="K321" t="n">
-        <v>-12.49999999999996</v>
+        <v>6.666666666666746</v>
       </c>
       <c r="L321" t="n">
         <v>29.16000000000001</v>
@@ -16650,7 +16668,7 @@
         <v>33.19999999999993</v>
       </c>
       <c r="K322" t="n">
-        <v>-9.090909090909131</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>29.18000000000001</v>
@@ -16701,7 +16719,7 @@
         <v>33.39999999999993</v>
       </c>
       <c r="K323" t="n">
-        <v>-14.2857142857143</v>
+        <v>-12.49999999999994</v>
       </c>
       <c r="L323" t="n">
         <v>29.16000000000001</v>
@@ -16752,7 +16770,7 @@
         <v>33.39999999999993</v>
       </c>
       <c r="K324" t="n">
-        <v>-9.09090909090912</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L324" t="n">
         <v>29.14000000000001</v>
@@ -16803,7 +16821,7 @@
         <v>33.69999999999993</v>
       </c>
       <c r="K325" t="n">
-        <v>-5.882352941176458</v>
+        <v>20.00000000000005</v>
       </c>
       <c r="L325" t="n">
         <v>29.14000000000001</v>
@@ -16854,7 +16872,7 @@
         <v>33.99999999999993</v>
       </c>
       <c r="K326" t="n">
-        <v>-8.571428571428608</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L326" t="n">
         <v>29.14000000000001</v>
@@ -16905,7 +16923,7 @@
         <v>34.09999999999993</v>
       </c>
       <c r="K327" t="n">
-        <v>-11.76470588235292</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
         <v>29.12000000000001</v>
@@ -16956,7 +16974,7 @@
         <v>34.19999999999993</v>
       </c>
       <c r="K328" t="n">
-        <v>-6.249999999999986</v>
+        <v>-23.07692307692318</v>
       </c>
       <c r="L328" t="n">
         <v>29.11000000000001</v>
@@ -17007,7 +17025,7 @@
         <v>34.29999999999993</v>
       </c>
       <c r="K329" t="n">
-        <v>-9.677419354838625</v>
+        <v>0</v>
       </c>
       <c r="L329" t="n">
         <v>29.09000000000001</v>
@@ -17058,7 +17076,7 @@
         <v>34.39999999999993</v>
       </c>
       <c r="K330" t="n">
-        <v>-3.225806451612947</v>
+        <v>7.692307692307546</v>
       </c>
       <c r="L330" t="n">
         <v>29.1</v>
@@ -17109,7 +17127,7 @@
         <v>34.59999999999994</v>
       </c>
       <c r="K331" t="n">
-        <v>-6.249999999999972</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L331" t="n">
         <v>29.09</v>
@@ -17160,7 +17178,7 @@
         <v>34.69999999999994</v>
       </c>
       <c r="K332" t="n">
-        <v>3.225806451612944</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L332" t="n">
         <v>29.08000000000001</v>
@@ -17211,7 +17229,7 @@
         <v>34.69999999999994</v>
       </c>
       <c r="K333" t="n">
-        <v>-3.448275862068885</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L333" t="n">
         <v>29.09000000000001</v>
@@ -17262,7 +17280,7 @@
         <v>34.79999999999994</v>
       </c>
       <c r="K334" t="n">
-        <v>-6.666666666666628</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L334" t="n">
         <v>29.09000000000001</v>
@@ -17313,7 +17331,7 @@
         <v>34.89999999999994</v>
       </c>
       <c r="K335" t="n">
-        <v>-6.666666666666628</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L335" t="n">
         <v>29.07000000000001</v>
@@ -17364,7 +17382,7 @@
         <v>34.99999999999994</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L336" t="n">
         <v>29.07000000000001</v>
@@ -17415,7 +17433,7 @@
         <v>35.09999999999994</v>
       </c>
       <c r="K337" t="n">
-        <v>-7.692307692307619</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L337" t="n">
         <v>29.07000000000001</v>
@@ -17466,7 +17484,7 @@
         <v>35.19999999999995</v>
       </c>
       <c r="K338" t="n">
-        <v>-4.000000000000034</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L338" t="n">
         <v>29.07000000000001</v>
@@ -17517,7 +17535,7 @@
         <v>35.19999999999995</v>
       </c>
       <c r="K339" t="n">
-        <v>-13.04347826086953</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L339" t="n">
         <v>29.06000000000001</v>
@@ -17568,7 +17586,7 @@
         <v>35.29999999999995</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L340" t="n">
         <v>29.05000000000001</v>
@@ -17619,7 +17637,7 @@
         <v>35.39999999999995</v>
       </c>
       <c r="K341" t="n">
-        <v>-4.347826086956561</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L341" t="n">
         <v>29.05000000000001</v>
@@ -17670,7 +17688,7 @@
         <v>35.39999999999995</v>
       </c>
       <c r="K342" t="n">
-        <v>-9.090909090908989</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L342" t="n">
         <v>29.04000000000001</v>
@@ -17772,7 +17790,7 @@
         <v>35.39999999999995</v>
       </c>
       <c r="K344" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L344" t="n">
         <v>29.03000000000001</v>
@@ -17823,7 +17841,7 @@
         <v>35.49999999999995</v>
       </c>
       <c r="K345" t="n">
-        <v>-11.11111111111096</v>
+        <v>20</v>
       </c>
       <c r="L345" t="n">
         <v>29.03000000000001</v>
@@ -17874,7 +17892,7 @@
         <v>35.49999999999995</v>
       </c>
       <c r="K346" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
         <v>29.04000000000001</v>
@@ -17925,7 +17943,7 @@
         <v>35.69999999999995</v>
       </c>
       <c r="K347" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L347" t="n">
         <v>29.02</v>
@@ -17976,7 +17994,7 @@
         <v>35.69999999999995</v>
       </c>
       <c r="K348" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L348" t="n">
         <v>29.01</v>
@@ -18078,7 +18096,7 @@
         <v>36.09999999999996</v>
       </c>
       <c r="K350" t="n">
-        <v>-17.6470588235292</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L350" t="n">
         <v>29</v>
@@ -18129,7 +18147,7 @@
         <v>36.29999999999996</v>
       </c>
       <c r="K351" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L351" t="n">
         <v>29.01</v>
@@ -18180,7 +18198,7 @@
         <v>36.39999999999996</v>
       </c>
       <c r="K352" t="n">
-        <v>5.882352941176261</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L352" t="n">
         <v>29.03</v>
@@ -18231,7 +18249,7 @@
         <v>36.49999999999996</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L353" t="n">
         <v>29.04</v>
@@ -18282,7 +18300,7 @@
         <v>36.69999999999996</v>
       </c>
       <c r="K354" t="n">
-        <v>15.7894736842104</v>
+        <v>16.66666666666647</v>
       </c>
       <c r="L354" t="n">
         <v>29.07</v>
@@ -18333,7 +18351,7 @@
         <v>36.99999999999996</v>
       </c>
       <c r="K355" t="n">
-        <v>-4.761904761904794</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L355" t="n">
         <v>29.06</v>
@@ -18384,7 +18402,7 @@
         <v>36.99999999999996</v>
       </c>
       <c r="K356" t="n">
-        <v>0</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L356" t="n">
         <v>29.05</v>
@@ -18435,7 +18453,7 @@
         <v>37.29999999999995</v>
       </c>
       <c r="K357" t="n">
-        <v>9.090909090909017</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L357" t="n">
         <v>29.09</v>
@@ -18486,7 +18504,7 @@
         <v>37.59999999999995</v>
       </c>
       <c r="K358" t="n">
-        <v>0</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L358" t="n">
         <v>29.1</v>
@@ -18537,7 +18555,7 @@
         <v>37.89999999999995</v>
       </c>
       <c r="K359" t="n">
-        <v>11.11111111111112</v>
+        <v>22.22222222222246</v>
       </c>
       <c r="L359" t="n">
         <v>29.12</v>
@@ -18588,7 +18606,7 @@
         <v>38.19999999999995</v>
       </c>
       <c r="K360" t="n">
-        <v>-3.448275862069016</v>
+        <v>-5.263157894736961</v>
       </c>
       <c r="L360" t="n">
         <v>29.13000000000001</v>
@@ -18639,7 +18657,7 @@
         <v>38.19999999999995</v>
       </c>
       <c r="K361" t="n">
-        <v>0</v>
+        <v>-11.11111111111118</v>
       </c>
       <c r="L361" t="n">
         <v>29.12</v>
@@ -18690,7 +18708,7 @@
         <v>38.19999999999995</v>
       </c>
       <c r="K362" t="n">
-        <v>0</v>
+        <v>-5.882352941176594</v>
       </c>
       <c r="L362" t="n">
         <v>29.1</v>
@@ -18741,7 +18759,7 @@
         <v>38.29999999999995</v>
       </c>
       <c r="K363" t="n">
-        <v>3.448275862069016</v>
+        <v>-12.50000000000006</v>
       </c>
       <c r="L363" t="n">
         <v>29.1</v>
@@ -18792,7 +18810,7 @@
         <v>38.29999999999995</v>
       </c>
       <c r="K364" t="n">
-        <v>3.448275862069016</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L364" t="n">
         <v>29.08000000000001</v>
@@ -18843,7 +18861,7 @@
         <v>38.39999999999995</v>
       </c>
       <c r="K365" t="n">
-        <v>-3.448275862069016</v>
+        <v>0</v>
       </c>
       <c r="L365" t="n">
         <v>29.08000000000001</v>
@@ -18894,7 +18912,7 @@
         <v>38.49999999999995</v>
       </c>
       <c r="K366" t="n">
-        <v>-6.666666666666761</v>
+        <v>-33.33333333333363</v>
       </c>
       <c r="L366" t="n">
         <v>29.07</v>
@@ -18945,7 +18963,7 @@
         <v>38.49999999999995</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L367" t="n">
         <v>29.03</v>
@@ -18996,7 +19014,7 @@
         <v>38.49999999999995</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>-66.66666666666686</v>
       </c>
       <c r="L368" t="n">
         <v>29.02</v>
@@ -19047,7 +19065,7 @@
         <v>38.59999999999995</v>
       </c>
       <c r="K369" t="n">
-        <v>-3.703703703703762</v>
+        <v>0</v>
       </c>
       <c r="L369" t="n">
         <v>28.99</v>
@@ -19098,7 +19116,7 @@
         <v>38.69999999999995</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L370" t="n">
         <v>28.98</v>
@@ -19149,7 +19167,7 @@
         <v>38.89999999999996</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L371" t="n">
         <v>28.99</v>
@@ -19200,7 +19218,7 @@
         <v>38.89999999999996</v>
       </c>
       <c r="K372" t="n">
-        <v>-3.999999999999926</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>29</v>
@@ -19251,7 +19269,7 @@
         <v>38.99999999999996</v>
       </c>
       <c r="K373" t="n">
-        <v>-4.000000000000057</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L373" t="n">
         <v>28.99</v>
@@ -19302,7 +19320,7 @@
         <v>39.19999999999996</v>
       </c>
       <c r="K374" t="n">
-        <v>-4.000000000000057</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L374" t="n">
         <v>28.99999999999999</v>
@@ -19353,7 +19371,7 @@
         <v>39.19999999999996</v>
       </c>
       <c r="K375" t="n">
-        <v>9.090909090909047</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L375" t="n">
         <v>29.01999999999999</v>
@@ -19404,7 +19422,7 @@
         <v>39.39999999999996</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L376" t="n">
         <v>29.02999999999999</v>
@@ -19455,7 +19473,7 @@
         <v>39.59999999999997</v>
       </c>
       <c r="K377" t="n">
-        <v>-4.347826086956561</v>
+        <v>27.27272727272695</v>
       </c>
       <c r="L377" t="n">
         <v>29.06</v>
@@ -19506,7 +19524,7 @@
         <v>39.79999999999997</v>
       </c>
       <c r="K378" t="n">
-        <v>18.18181818181798</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L378" t="n">
         <v>29.11</v>
@@ -19557,7 +19575,7 @@
         <v>39.99999999999997</v>
       </c>
       <c r="K379" t="n">
-        <v>-4.761904761904779</v>
+        <v>23.0769230769228</v>
       </c>
       <c r="L379" t="n">
         <v>29.13</v>
@@ -19608,7 +19626,7 @@
         <v>40.09999999999997</v>
       </c>
       <c r="K380" t="n">
-        <v>5.263157894736862</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>29.15</v>
@@ -19659,7 +19677,7 @@
         <v>40.09999999999997</v>
       </c>
       <c r="K381" t="n">
-        <v>5.263157894736862</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>29.15</v>
@@ -19710,7 +19728,7 @@
         <v>40.09999999999997</v>
       </c>
       <c r="K382" t="n">
-        <v>5.263157894736862</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L382" t="n">
         <v>29.15</v>
@@ -19761,7 +19779,7 @@
         <v>40.09999999999997</v>
       </c>
       <c r="K383" t="n">
-        <v>0</v>
+        <v>-11.1111111111108</v>
       </c>
       <c r="L383" t="n">
         <v>29.16</v>
@@ -19812,7 +19830,7 @@
         <v>40.19999999999997</v>
       </c>
       <c r="K384" t="n">
-        <v>-5.263157894736862</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L384" t="n">
         <v>29.14</v>
@@ -19914,7 +19932,7 @@
         <v>40.39999999999996</v>
       </c>
       <c r="K386" t="n">
-        <v>15.78947368421046</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>29.14</v>
@@ -19965,7 +19983,7 @@
         <v>40.39999999999996</v>
       </c>
       <c r="K387" t="n">
-        <v>15.78947368421046</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L387" t="n">
         <v>29.14</v>
@@ -20016,7 +20034,7 @@
         <v>40.39999999999996</v>
       </c>
       <c r="K388" t="n">
-        <v>15.78947368421046</v>
+        <v>0</v>
       </c>
       <c r="L388" t="n">
         <v>29.12</v>
@@ -20067,7 +20085,7 @@
         <v>40.39999999999996</v>
       </c>
       <c r="K389" t="n">
-        <v>11.111111111111</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L389" t="n">
         <v>29.12</v>
@@ -20118,7 +20136,7 @@
         <v>40.39999999999996</v>
       </c>
       <c r="K390" t="n">
-        <v>17.64705882352935</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L390" t="n">
         <v>29.13</v>
@@ -20169,7 +20187,7 @@
         <v>40.59999999999997</v>
       </c>
       <c r="K391" t="n">
-        <v>-5.88235294117652</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L391" t="n">
         <v>29.12</v>
@@ -20220,7 +20238,7 @@
         <v>40.79999999999997</v>
       </c>
       <c r="K392" t="n">
-        <v>5.263157894736695</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L392" t="n">
         <v>29.13</v>
@@ -20271,7 +20289,7 @@
         <v>40.79999999999997</v>
       </c>
       <c r="K393" t="n">
-        <v>11.111111111111</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L393" t="n">
         <v>29.13999999999999</v>
@@ -20322,7 +20340,7 @@
         <v>40.79999999999997</v>
       </c>
       <c r="K394" t="n">
-        <v>0</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L394" t="n">
         <v>29.15999999999999</v>
@@ -20373,7 +20391,7 @@
         <v>40.89999999999996</v>
       </c>
       <c r="K395" t="n">
-        <v>-5.882352941176335</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L395" t="n">
         <v>29.16999999999999</v>
@@ -20424,7 +20442,7 @@
         <v>40.89999999999996</v>
       </c>
       <c r="K396" t="n">
-        <v>6.666666666666761</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L396" t="n">
         <v>29.16</v>
@@ -20526,7 +20544,7 @@
         <v>41.09999999999996</v>
       </c>
       <c r="K398" t="n">
-        <v>-7.692307692307587</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L398" t="n">
         <v>29.17</v>
@@ -20577,7 +20595,7 @@
         <v>41.59999999999996</v>
       </c>
       <c r="K399" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L399" t="n">
         <v>29.13</v>
@@ -20628,7 +20646,7 @@
         <v>41.99999999999996</v>
       </c>
       <c r="K400" t="n">
-        <v>5.263157894736754</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L400" t="n">
         <v>29.13</v>
@@ -20679,7 +20697,7 @@
         <v>42.09999999999995</v>
       </c>
       <c r="K401" t="n">
-        <v>0</v>
+        <v>-7.692307692307629</v>
       </c>
       <c r="L401" t="n">
         <v>29.14</v>
@@ -20730,7 +20748,7 @@
         <v>42.09999999999995</v>
       </c>
       <c r="K402" t="n">
-        <v>0</v>
+        <v>-7.692307692307629</v>
       </c>
       <c r="L402" t="n">
         <v>29.13000000000001</v>
@@ -20781,7 +20799,7 @@
         <v>42.09999999999995</v>
       </c>
       <c r="K403" t="n">
-        <v>0</v>
+        <v>-7.692307692307629</v>
       </c>
       <c r="L403" t="n">
         <v>29.12000000000001</v>
@@ -20832,7 +20850,7 @@
         <v>42.29999999999995</v>
       </c>
       <c r="K404" t="n">
-        <v>14.28571428571441</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L404" t="n">
         <v>29.13000000000001</v>
@@ -20883,7 +20901,7 @@
         <v>42.29999999999995</v>
       </c>
       <c r="K405" t="n">
-        <v>14.28571428571441</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L405" t="n">
         <v>29.15000000000001</v>
@@ -20940,7 +20958,7 @@
         <v>42.39999999999995</v>
       </c>
       <c r="K406" t="n">
-        <v>10.00000000000004</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L406" t="n">
         <v>29.18000000000001</v>
@@ -20997,7 +21015,7 @@
         <v>42.49999999999995</v>
       </c>
       <c r="K407" t="n">
-        <v>14.28571428571441</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L407" t="n">
         <v>29.21000000000001</v>
@@ -21056,7 +21074,7 @@
         <v>42.49999999999995</v>
       </c>
       <c r="K408" t="n">
-        <v>14.28571428571441</v>
+        <v>77.77777777777844</v>
       </c>
       <c r="L408" t="n">
         <v>29.23000000000001</v>
@@ -21117,7 +21135,7 @@
         <v>42.69999999999995</v>
       </c>
       <c r="K409" t="n">
-        <v>4.347826086956616</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L409" t="n">
         <v>29.28000000000001</v>
@@ -21176,7 +21194,7 @@
         <v>42.89999999999995</v>
       </c>
       <c r="K410" t="n">
-        <v>12.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="L410" t="n">
         <v>29.31000000000001</v>
@@ -21233,7 +21251,7 @@
         <v>43.29999999999995</v>
       </c>
       <c r="K411" t="n">
-        <v>33.33333333333351</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L411" t="n">
         <v>29.39</v>
@@ -21290,7 +21308,7 @@
         <v>43.39999999999995</v>
       </c>
       <c r="K412" t="n">
-        <v>23.07692307692331</v>
+        <v>53.84615384615391</v>
       </c>
       <c r="L412" t="n">
         <v>29.46</v>
@@ -21347,7 +21365,7 @@
         <v>43.49999999999994</v>
       </c>
       <c r="K413" t="n">
-        <v>25.92592592592615</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L413" t="n">
         <v>29.54</v>
@@ -21404,7 +21422,7 @@
         <v>43.59999999999994</v>
       </c>
       <c r="K414" t="n">
-        <v>21.42857142857172</v>
+        <v>38.46153846153897</v>
       </c>
       <c r="L414" t="n">
         <v>29.59</v>
@@ -21461,7 +21479,7 @@
         <v>43.89999999999993</v>
       </c>
       <c r="K415" t="n">
-        <v>33.33333333333365</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L415" t="n">
         <v>29.67</v>
@@ -21518,7 +21536,7 @@
         <v>43.89999999999993</v>
       </c>
       <c r="K416" t="n">
-        <v>33.33333333333365</v>
+        <v>42.85714285714344</v>
       </c>
       <c r="L416" t="n">
         <v>29.74</v>
@@ -21575,7 +21593,7 @@
         <v>44.19999999999993</v>
       </c>
       <c r="K417" t="n">
-        <v>37.50000000000028</v>
+        <v>52.94117647058872</v>
       </c>
       <c r="L417" t="n">
         <v>29.83</v>
@@ -21632,7 +21650,7 @@
         <v>44.29999999999993</v>
       </c>
       <c r="K418" t="n">
-        <v>37.50000000000028</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L418" t="n">
         <v>29.93</v>
@@ -21683,7 +21701,7 @@
         <v>44.69999999999993</v>
       </c>
       <c r="K419" t="n">
-        <v>67.74193548387149</v>
+        <v>77.77777777777844</v>
       </c>
       <c r="L419" t="n">
         <v>30.09</v>
@@ -21734,7 +21752,7 @@
         <v>44.79999999999993</v>
       </c>
       <c r="K420" t="n">
-        <v>64.28571428571487</v>
+        <v>73.33333333333412</v>
       </c>
       <c r="L420" t="n">
         <v>30.24</v>
@@ -21785,7 +21803,7 @@
         <v>44.79999999999993</v>
       </c>
       <c r="K421" t="n">
-        <v>70.37037037037079</v>
+        <v>85.71428571428662</v>
       </c>
       <c r="L421" t="n">
         <v>30.35</v>
@@ -21836,7 +21854,7 @@
         <v>44.89999999999993</v>
       </c>
       <c r="K422" t="n">
-        <v>64.28571428571458</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L422" t="n">
         <v>30.46</v>
@@ -21887,7 +21905,7 @@
         <v>44.99999999999993</v>
       </c>
       <c r="K423" t="n">
-        <v>58.62068965517285</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L423" t="n">
         <v>30.55</v>
@@ -21938,7 +21956,7 @@
         <v>45.19999999999993</v>
       </c>
       <c r="K424" t="n">
-        <v>44.82758620689693</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L424" t="n">
         <v>30.63</v>
@@ -21989,7 +22007,7 @@
         <v>45.29999999999993</v>
       </c>
       <c r="K425" t="n">
-        <v>40.00000000000026</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L425" t="n">
         <v>30.67</v>
@@ -22040,7 +22058,7 @@
         <v>45.29999999999993</v>
       </c>
       <c r="K426" t="n">
-        <v>37.93103448275888</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L426" t="n">
         <v>30.71</v>
@@ -22091,7 +22109,7 @@
         <v>45.29999999999993</v>
       </c>
       <c r="K427" t="n">
-        <v>35.71428571428593</v>
+        <v>0</v>
       </c>
       <c r="L427" t="n">
         <v>30.72</v>
@@ -22142,7 +22160,7 @@
         <v>45.39999999999993</v>
       </c>
       <c r="K428" t="n">
-        <v>37.93103448275888</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L428" t="n">
         <v>30.73</v>
@@ -22193,7 +22211,7 @@
         <v>45.39999999999993</v>
       </c>
       <c r="K429" t="n">
-        <v>48.14814814814838</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L429" t="n">
         <v>30.70000000000001</v>
@@ -22244,7 +22262,7 @@
         <v>45.39999999999993</v>
       </c>
       <c r="K430" t="n">
-        <v>44.00000000000031</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L430" t="n">
         <v>30.66000000000001</v>
@@ -22295,7 +22313,7 @@
         <v>45.39999999999993</v>
       </c>
       <c r="K431" t="n">
-        <v>33.33333333333367</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L431" t="n">
         <v>30.62000000000001</v>
@@ -22346,7 +22364,7 @@
         <v>45.69999999999993</v>
       </c>
       <c r="K432" t="n">
-        <v>21.73913043478277</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L432" t="n">
         <v>30.56000000000001</v>
@@ -22397,7 +22415,7 @@
         <v>45.69999999999993</v>
       </c>
       <c r="K433" t="n">
-        <v>18.18181818181838</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L433" t="n">
         <v>30.51000000000001</v>
@@ -22448,7 +22466,7 @@
         <v>45.69999999999993</v>
       </c>
       <c r="K434" t="n">
-        <v>23.80952380952387</v>
+        <v>-50</v>
       </c>
       <c r="L434" t="n">
         <v>30.48000000000001</v>
@@ -22499,7 +22517,7 @@
         <v>45.79999999999993</v>
       </c>
       <c r="K435" t="n">
-        <v>5.263157894736733</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L435" t="n">
         <v>30.45000000000001</v>
@@ -22550,7 +22568,7 @@
         <v>45.99999999999993</v>
       </c>
       <c r="K436" t="n">
-        <v>14.28571428571419</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L436" t="n">
         <v>30.44000000000001</v>
@@ -22601,7 +22619,7 @@
         <v>45.99999999999993</v>
       </c>
       <c r="K437" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L437" t="n">
         <v>30.43000000000001</v>
@@ -22652,7 +22670,7 @@
         <v>46.09999999999992</v>
       </c>
       <c r="K438" t="n">
-        <v>-11.11111111111113</v>
+        <v>-42.85714285714366</v>
       </c>
       <c r="L438" t="n">
         <v>30.40000000000001</v>
@@ -22703,7 +22721,7 @@
         <v>46.19999999999992</v>
       </c>
       <c r="K439" t="n">
-        <v>-33.33333333333365</v>
+        <v>-25.00000000000089</v>
       </c>
       <c r="L439" t="n">
         <v>30.38</v>
@@ -22754,7 +22772,7 @@
         <v>46.29999999999991</v>
       </c>
       <c r="K440" t="n">
-        <v>-46.66666666666728</v>
+        <v>-33.33333333333425</v>
       </c>
       <c r="L440" t="n">
         <v>30.35</v>
@@ -22805,7 +22823,7 @@
         <v>46.29999999999991</v>
       </c>
       <c r="K441" t="n">
-        <v>-46.66666666666728</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>30.32</v>
@@ -22856,7 +22874,7 @@
         <v>46.29999999999991</v>
       </c>
       <c r="K442" t="n">
-        <v>-42.8571428571434</v>
+        <v>0</v>
       </c>
       <c r="L442" t="n">
         <v>30.32</v>
@@ -22907,7 +22925,7 @@
         <v>46.29999999999991</v>
       </c>
       <c r="K443" t="n">
-        <v>-38.46153846153897</v>
+        <v>0</v>
       </c>
       <c r="L443" t="n">
         <v>30.32</v>
@@ -22958,7 +22976,7 @@
         <v>46.49999999999991</v>
       </c>
       <c r="K444" t="n">
-        <v>-7.692307692307902</v>
+        <v>42.85714285714409</v>
       </c>
       <c r="L444" t="n">
         <v>30.34</v>
@@ -23009,7 +23027,7 @@
         <v>46.69999999999992</v>
       </c>
       <c r="K445" t="n">
-        <v>-14.28571428571439</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L445" t="n">
         <v>30.35</v>
@@ -23060,7 +23078,7 @@
         <v>46.79999999999991</v>
       </c>
       <c r="K446" t="n">
-        <v>-6.666666666666857</v>
+        <v>0</v>
       </c>
       <c r="L446" t="n">
         <v>30.35</v>
@@ -23111,7 +23129,7 @@
         <v>46.79999999999991</v>
       </c>
       <c r="K447" t="n">
-        <v>-6.666666666666857</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L447" t="n">
         <v>30.35</v>
@@ -23162,7 +23180,7 @@
         <v>46.89999999999991</v>
       </c>
       <c r="K448" t="n">
-        <v>-20.00000000000043</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L448" t="n">
         <v>30.35</v>
@@ -23213,7 +23231,7 @@
         <v>46.89999999999991</v>
       </c>
       <c r="K449" t="n">
-        <v>-20.00000000000043</v>
+        <v>0</v>
       </c>
       <c r="L449" t="n">
         <v>30.34</v>
@@ -23264,7 +23282,7 @@
         <v>47.09999999999991</v>
       </c>
       <c r="K450" t="n">
-        <v>-5.882352941176642</v>
+        <v>25</v>
       </c>
       <c r="L450" t="n">
         <v>30.36</v>
@@ -23315,7 +23333,7 @@
         <v>47.59999999999991</v>
       </c>
       <c r="K451" t="n">
-        <v>18.18181818181833</v>
+        <v>53.84615384615391</v>
       </c>
       <c r="L451" t="n">
         <v>30.43</v>
@@ -23366,7 +23384,7 @@
         <v>47.59999999999991</v>
       </c>
       <c r="K452" t="n">
-        <v>36.8421052631583</v>
+        <v>53.84615384615391</v>
       </c>
       <c r="L452" t="n">
         <v>30.5</v>
@@ -23417,7 +23435,7 @@
         <v>47.59999999999991</v>
       </c>
       <c r="K453" t="n">
-        <v>36.8421052631583</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L453" t="n">
         <v>30.57</v>
@@ -23468,7 +23486,7 @@
         <v>47.59999999999991</v>
       </c>
       <c r="K454" t="n">
-        <v>36.8421052631583</v>
+        <v>77.77777777777844</v>
       </c>
       <c r="L454" t="n">
         <v>30.62</v>
@@ -23519,7 +23537,7 @@
         <v>47.69999999999991</v>
       </c>
       <c r="K455" t="n">
-        <v>47.36842105263226</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L455" t="n">
         <v>30.7</v>
@@ -23570,7 +23588,7 @@
         <v>47.89999999999991</v>
       </c>
       <c r="K456" t="n">
-        <v>26.31578947368443</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L456" t="n">
         <v>30.75</v>
@@ -23621,7 +23639,7 @@
         <v>48.59999999999992</v>
       </c>
       <c r="K457" t="n">
-        <v>46.15384615384649</v>
+        <v>76.47058823529372</v>
       </c>
       <c r="L457" t="n">
         <v>30.87</v>
@@ -23672,7 +23690,7 @@
         <v>48.79999999999992</v>
       </c>
       <c r="K458" t="n">
-        <v>40.74074074074073</v>
+        <v>57.89473684210476</v>
       </c>
       <c r="L458" t="n">
         <v>30.98</v>
@@ -23723,7 +23741,7 @@
         <v>49.29999999999992</v>
       </c>
       <c r="K459" t="n">
-        <v>48.38709677419353</v>
+        <v>63.63636363636328</v>
       </c>
       <c r="L459" t="n">
         <v>31.14</v>
@@ -23774,7 +23792,7 @@
         <v>49.39999999999992</v>
       </c>
       <c r="K460" t="n">
-        <v>54.83870967741918</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L460" t="n">
         <v>31.29</v>
@@ -23825,7 +23843,7 @@
         <v>49.49999999999992</v>
       </c>
       <c r="K461" t="n">
-        <v>49.99999999999978</v>
+        <v>47.36842105263118</v>
       </c>
       <c r="L461" t="n">
         <v>31.38</v>
@@ -23876,7 +23894,7 @@
         <v>49.89999999999992</v>
       </c>
       <c r="K462" t="n">
-        <v>55.55555555555532</v>
+        <v>56.52173913043438</v>
       </c>
       <c r="L462" t="n">
         <v>31.51</v>
@@ -23927,7 +23945,7 @@
         <v>50.19999999999992</v>
       </c>
       <c r="K463" t="n">
-        <v>43.58974358974351</v>
+        <v>38.46153846153834</v>
       </c>
       <c r="L463" t="n">
         <v>31.61</v>
@@ -23978,7 +23996,7 @@
         <v>50.39999999999992</v>
       </c>
       <c r="K464" t="n">
-        <v>43.5897435897436</v>
+        <v>40.74074074074064</v>
       </c>
       <c r="L464" t="n">
         <v>31.73</v>
@@ -24029,7 +24047,7 @@
         <v>50.49999999999991</v>
       </c>
       <c r="K465" t="n">
-        <v>52.63157894736836</v>
+        <v>53.84615384615377</v>
       </c>
       <c r="L465" t="n">
         <v>31.84999999999999</v>
@@ -24080,7 +24098,7 @@
         <v>50.69999999999992</v>
       </c>
       <c r="K466" t="n">
-        <v>53.8461538461538</v>
+        <v>42.85714285714276</v>
       </c>
       <c r="L466" t="n">
         <v>32.01</v>
@@ -24131,7 +24149,7 @@
         <v>50.89999999999992</v>
       </c>
       <c r="K467" t="n">
-        <v>46.34146341463401</v>
+        <v>42.85714285714276</v>
       </c>
       <c r="L467" t="n">
         <v>32.08</v>
@@ -24182,7 +24200,7 @@
         <v>51.59999999999992</v>
       </c>
       <c r="K468" t="n">
-        <v>27.65957446808506</v>
+        <v>-13.04347826086946</v>
       </c>
       <c r="L468" t="n">
         <v>32.1</v>
@@ -24233,7 +24251,7 @@
         <v>51.99999999999991</v>
       </c>
       <c r="K469" t="n">
-        <v>33.33333333333326</v>
+        <v>0</v>
       </c>
       <c r="L469" t="n">
         <v>32.11</v>
@@ -24284,7 +24302,7 @@
         <v>51.99999999999991</v>
       </c>
       <c r="K470" t="n">
-        <v>30.61224489795914</v>
+        <v>4.000000000000068</v>
       </c>
       <c r="L470" t="n">
         <v>32.11</v>
@@ -24335,7 +24353,7 @@
         <v>52.39999999999991</v>
       </c>
       <c r="K471" t="n">
-        <v>29.16666666666661</v>
+        <v>4.000000000000068</v>
       </c>
       <c r="L471" t="n">
         <v>32.16</v>
@@ -24386,7 +24404,7 @@
         <v>52.79999999999991</v>
       </c>
       <c r="K472" t="n">
-        <v>19.23076923076922</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>32.13</v>
@@ -24437,7 +24455,7 @@
         <v>52.89999999999991</v>
       </c>
       <c r="K473" t="n">
-        <v>20.75471698113208</v>
+        <v>-4.000000000000068</v>
       </c>
       <c r="L473" t="n">
         <v>32.14</v>
@@ -24488,7 +24506,7 @@
         <v>52.99999999999991</v>
       </c>
       <c r="K474" t="n">
-        <v>18.5185185185185</v>
+        <v>-11.99999999999989</v>
       </c>
       <c r="L474" t="n">
         <v>32.12</v>
@@ -24539,7 +24557,7 @@
         <v>52.99999999999991</v>
       </c>
       <c r="K475" t="n">
-        <v>16.98113207547166</v>
+        <v>-21.73913043478263</v>
       </c>
       <c r="L475" t="n">
         <v>32.09</v>
@@ -24590,7 +24608,7 @@
         <v>52.99999999999991</v>
       </c>
       <c r="K476" t="n">
-        <v>21.56862745098041</v>
+        <v>-14.28571428571419</v>
       </c>
       <c r="L476" t="n">
         <v>32.04000000000001</v>
@@ -24641,7 +24659,7 @@
         <v>53.09999999999992</v>
       </c>
       <c r="K477" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L477" t="n">
         <v>32.02</v>
@@ -24692,7 +24710,7 @@
         <v>53.29999999999991</v>
       </c>
       <c r="K478" t="n">
-        <v>20</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L478" t="n">
         <v>32.09</v>
@@ -24743,7 +24761,7 @@
         <v>53.29999999999991</v>
       </c>
       <c r="K479" t="n">
-        <v>9.999999999999982</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L479" t="n">
         <v>32.12</v>
@@ -24794,7 +24812,7 @@
         <v>53.59999999999991</v>
       </c>
       <c r="K480" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L480" t="n">
         <v>32.12</v>
@@ -24845,7 +24863,7 @@
         <v>53.69999999999991</v>
       </c>
       <c r="K481" t="n">
-        <v>4.761904761904842</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L481" t="n">
         <v>32.09000000000001</v>
@@ -24896,7 +24914,7 @@
         <v>53.79999999999991</v>
       </c>
       <c r="K482" t="n">
-        <v>-7.692307692307636</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L482" t="n">
         <v>32.09000000000001</v>
@@ -24947,7 +24965,7 @@
         <v>54.19999999999991</v>
       </c>
       <c r="K483" t="n">
-        <v>9.999999999999982</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L483" t="n">
         <v>32.12</v>
@@ -24998,7 +25016,7 @@
         <v>54.49999999999991</v>
       </c>
       <c r="K484" t="n">
-        <v>-2.439024390243945</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L484" t="n">
         <v>32.13000000000001</v>
@@ -25049,7 +25067,7 @@
         <v>54.7999999999999</v>
       </c>
       <c r="K485" t="n">
-        <v>2.325581395348876</v>
+        <v>22.22222222222226</v>
       </c>
       <c r="L485" t="n">
         <v>32.17</v>
@@ -25100,7 +25118,7 @@
         <v>54.99999999999991</v>
       </c>
       <c r="K486" t="n">
-        <v>2.325581395348876</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L486" t="n">
         <v>32.23</v>
@@ -25151,7 +25169,7 @@
         <v>55.09999999999991</v>
       </c>
       <c r="K487" t="n">
-        <v>9.523809523809684</v>
+        <v>22.22222222222257</v>
       </c>
       <c r="L487" t="n">
         <v>32.29000000000001</v>
@@ -25202,7 +25220,7 @@
         <v>55.1999999999999</v>
       </c>
       <c r="K488" t="n">
-        <v>33.33333333333333</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L488" t="n">
         <v>32.34</v>
@@ -25253,7 +25271,7 @@
         <v>55.1999999999999</v>
       </c>
       <c r="K489" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L489" t="n">
         <v>32.39</v>
@@ -25304,7 +25322,7 @@
         <v>55.1999999999999</v>
       </c>
       <c r="K490" t="n">
-        <v>25</v>
+        <v>46.6666666666666</v>
       </c>
       <c r="L490" t="n">
         <v>32.47000000000001</v>
@@ -25355,7 +25373,7 @@
         <v>55.1999999999999</v>
       </c>
       <c r="K491" t="n">
-        <v>14.28571428571428</v>
+        <v>57.14285714285728</v>
       </c>
       <c r="L491" t="n">
         <v>32.54000000000001</v>
@@ -25406,7 +25424,7 @@
         <v>55.2999999999999</v>
       </c>
       <c r="K492" t="n">
-        <v>36.00000000000004</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L492" t="n">
         <v>32.63</v>
@@ -25457,7 +25475,7 @@
         <v>55.2999999999999</v>
       </c>
       <c r="K493" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L493" t="n">
         <v>32.68</v>
@@ -25508,7 +25526,7 @@
         <v>55.39999999999991</v>
       </c>
       <c r="K494" t="n">
-        <v>41.66666666666681</v>
+        <v>100</v>
       </c>
       <c r="L494" t="n">
         <v>32.77</v>
@@ -25559,7 +25577,7 @@
         <v>55.6999999999999</v>
       </c>
       <c r="K495" t="n">
-        <v>25.92592592592614</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L495" t="n">
         <v>32.8</v>
@@ -25610,7 +25628,7 @@
         <v>55.7999999999999</v>
       </c>
       <c r="K496" t="n">
-        <v>21.42857142857155</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L496" t="n">
         <v>32.8</v>
@@ -25661,7 +25679,7 @@
         <v>56.0999999999999</v>
       </c>
       <c r="K497" t="n">
-        <v>26.6666666666667</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L497" t="n">
         <v>32.82</v>
@@ -25712,7 +25730,7 @@
         <v>56.0999999999999</v>
       </c>
       <c r="K498" t="n">
-        <v>21.42857142857155</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L498" t="n">
         <v>32.83</v>
@@ -25763,7 +25781,7 @@
         <v>56.1999999999999</v>
       </c>
       <c r="K499" t="n">
-        <v>24.13793103448293</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L499" t="n">
         <v>32.84999999999999</v>
@@ -25814,7 +25832,7 @@
         <v>56.1999999999999</v>
       </c>
       <c r="K500" t="n">
-        <v>38.46153846153855</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L500" t="n">
         <v>32.86999999999999</v>
@@ -25865,7 +25883,7 @@
         <v>56.39999999999991</v>
       </c>
       <c r="K501" t="n">
-        <v>25.92592592592581</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L501" t="n">
         <v>32.86999999999999</v>
@@ -25916,7 +25934,7 @@
         <v>56.49999999999991</v>
       </c>
       <c r="K502" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L502" t="n">
         <v>32.86999999999999</v>
@@ -25967,7 +25985,7 @@
         <v>56.49999999999991</v>
       </c>
       <c r="K503" t="n">
-        <v>21.73913043478263</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L503" t="n">
         <v>32.86999999999999</v>
@@ -26018,7 +26036,7 @@
         <v>56.69999999999991</v>
       </c>
       <c r="K504" t="n">
-        <v>45.4545454545454</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L504" t="n">
         <v>32.88</v>
@@ -26069,7 +26087,7 @@
         <v>56.79999999999991</v>
       </c>
       <c r="K505" t="n">
-        <v>40.00000000000007</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L505" t="n">
         <v>32.92999999999999</v>
@@ -26120,7 +26138,7 @@
         <v>56.79999999999991</v>
       </c>
       <c r="K506" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L506" t="n">
         <v>32.98999999999999</v>
@@ -26171,7 +26189,7 @@
         <v>56.89999999999991</v>
       </c>
       <c r="K507" t="n">
-        <v>22.22222222222209</v>
+        <v>25</v>
       </c>
       <c r="L507" t="n">
         <v>33.01</v>
@@ -26222,7 +26240,7 @@
         <v>57.19999999999992</v>
       </c>
       <c r="K508" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L508" t="n">
         <v>33</v>
@@ -26273,7 +26291,7 @@
         <v>57.59999999999992</v>
       </c>
       <c r="K509" t="n">
-        <v>16.66666666666677</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L509" t="n">
         <v>33.02</v>
@@ -26324,7 +26342,7 @@
         <v>57.69999999999992</v>
       </c>
       <c r="K510" t="n">
-        <v>12.00000000000007</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L510" t="n">
         <v>33.03</v>
@@ -26375,7 +26393,7 @@
         <v>57.79999999999993</v>
       </c>
       <c r="K511" t="n">
-        <v>15.38461538461547</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L511" t="n">
         <v>33.07</v>
@@ -26426,7 +26444,7 @@
         <v>58.09999999999992</v>
       </c>
       <c r="K512" t="n">
-        <v>21.42857142857134</v>
+        <v>37.49999999999972</v>
       </c>
       <c r="L512" t="n">
         <v>33.13</v>
@@ -26477,7 +26495,7 @@
         <v>58.59999999999992</v>
       </c>
       <c r="K513" t="n">
-        <v>33.33333333333319</v>
+        <v>47.36842105263118</v>
       </c>
       <c r="L513" t="n">
         <v>33.24</v>
@@ -26528,7 +26546,7 @@
         <v>58.59999999999992</v>
       </c>
       <c r="K514" t="n">
-        <v>31.24999999999983</v>
+        <v>44.444444444444</v>
       </c>
       <c r="L514" t="n">
         <v>33.33</v>
@@ -26579,7 +26597,7 @@
         <v>58.69999999999992</v>
       </c>
       <c r="K515" t="n">
-        <v>46.66666666666629</v>
+        <v>47.36842105263118</v>
       </c>
       <c r="L515" t="n">
         <v>33.42</v>
@@ -26630,7 +26648,7 @@
         <v>59.09999999999992</v>
       </c>
       <c r="K516" t="n">
-        <v>57.57575757575722</v>
+        <v>63.63636363636328</v>
       </c>
       <c r="L516" t="n">
         <v>33.55</v>
@@ -26681,7 +26699,7 @@
         <v>59.19999999999992</v>
       </c>
       <c r="K517" t="n">
-        <v>54.83870967741904</v>
+        <v>89.99999999999989</v>
       </c>
       <c r="L517" t="n">
         <v>33.7</v>
@@ -26732,7 +26750,7 @@
         <v>59.39999999999992</v>
       </c>
       <c r="K518" t="n">
-        <v>57.57575757575722</v>
+        <v>88.88888888888872</v>
       </c>
       <c r="L518" t="n">
         <v>33.90000000000001</v>
@@ -26783,7 +26801,7 @@
         <v>59.69999999999992</v>
       </c>
       <c r="K519" t="n">
-        <v>42.85714285714268</v>
+        <v>70.00000000000017</v>
       </c>
       <c r="L519" t="n">
         <v>34.03000000000001</v>
@@ -26834,7 +26852,7 @@
         <v>59.69999999999992</v>
       </c>
       <c r="K520" t="n">
-        <v>42.85714285714268</v>
+        <v>68.4210526315791</v>
       </c>
       <c r="L520" t="n">
         <v>34.17</v>
@@ -26885,7 +26903,7 @@
         <v>60.19999999999992</v>
       </c>
       <c r="K521" t="n">
-        <v>31.57894736842103</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L521" t="n">
         <v>34.25000000000001</v>
@@ -26936,7 +26954,7 @@
         <v>60.19999999999992</v>
       </c>
       <c r="K522" t="n">
-        <v>29.72972972972969</v>
+        <v>0</v>
       </c>
       <c r="L522" t="n">
         <v>34.3</v>
@@ -26987,7 +27005,7 @@
         <v>60.29999999999992</v>
       </c>
       <c r="K523" t="n">
-        <v>26.31578947368413</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L523" t="n">
         <v>34.29000000000001</v>
@@ -27038,7 +27056,7 @@
         <v>60.39999999999992</v>
       </c>
       <c r="K524" t="n">
-        <v>24.32432432432422</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L524" t="n">
         <v>34.29000000000001</v>
@@ -27089,7 +27107,7 @@
         <v>60.69999999999992</v>
       </c>
       <c r="K525" t="n">
-        <v>28.20512820512802</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L525" t="n">
         <v>34.31</v>
@@ -27140,7 +27158,7 @@
         <v>60.79999999999992</v>
       </c>
       <c r="K526" t="n">
-        <v>29.99999999999984</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L526" t="n">
         <v>34.3</v>
@@ -27191,7 +27209,7 @@
         <v>60.89999999999992</v>
       </c>
       <c r="K527" t="n">
-        <v>34.9999999999999</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L527" t="n">
         <v>34.29</v>
@@ -27242,7 +27260,7 @@
         <v>60.99999999999992</v>
       </c>
       <c r="K528" t="n">
-        <v>42.10526315789473</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L528" t="n">
         <v>34.24999999999999</v>
@@ -27293,7 +27311,7 @@
         <v>61.09999999999992</v>
       </c>
       <c r="K529" t="n">
-        <v>37.14285714285706</v>
+        <v>0</v>
       </c>
       <c r="L529" t="n">
         <v>34.24999999999999</v>
@@ -27344,7 +27362,7 @@
         <v>61.19999999999992</v>
       </c>
       <c r="K530" t="n">
-        <v>37.14285714285706</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L530" t="n">
         <v>34.23999999999999</v>
@@ -27395,7 +27413,7 @@
         <v>61.19999999999992</v>
       </c>
       <c r="K531" t="n">
-        <v>35.29411764705871</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L531" t="n">
         <v>34.27999999999999</v>
@@ -27446,7 +27464,7 @@
         <v>61.29999999999993</v>
       </c>
       <c r="K532" t="n">
-        <v>31.24999999999997</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L532" t="n">
         <v>34.32999999999999</v>
@@ -27497,7 +27515,7 @@
         <v>61.59999999999992</v>
       </c>
       <c r="K533" t="n">
-        <v>6.666666666666761</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L533" t="n">
         <v>34.35999999999999</v>
@@ -27548,7 +27566,7 @@
         <v>61.69999999999992</v>
       </c>
       <c r="K534" t="n">
-        <v>9.677419354838635</v>
+        <v>0</v>
       </c>
       <c r="L534" t="n">
         <v>34.38999999999999</v>
@@ -27599,7 +27617,7 @@
         <v>61.89999999999992</v>
       </c>
       <c r="K535" t="n">
-        <v>12.49999999999997</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L535" t="n">
         <v>34.40999999999999</v>
@@ -27701,7 +27719,7 @@
         <v>62.09999999999992</v>
       </c>
       <c r="K537" t="n">
-        <v>-10.34482758620705</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L537" t="n">
         <v>34.39999999999999</v>
@@ -27752,7 +27770,7 @@
         <v>62.09999999999992</v>
       </c>
       <c r="K538" t="n">
-        <v>-18.5185185185185</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L538" t="n">
         <v>34.39</v>
@@ -27803,7 +27821,7 @@
         <v>62.39999999999992</v>
       </c>
       <c r="K539" t="n">
-        <v>-18.5185185185185</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L539" t="n">
         <v>34.34</v>
@@ -27854,7 +27872,7 @@
         <v>62.39999999999992</v>
       </c>
       <c r="K540" t="n">
-        <v>-18.5185185185185</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L540" t="n">
         <v>34.3</v>
@@ -27905,7 +27923,7 @@
         <v>62.69999999999992</v>
       </c>
       <c r="K541" t="n">
-        <v>-11.99999999999989</v>
+        <v>-57.14285714285728</v>
       </c>
       <c r="L541" t="n">
         <v>34.23</v>
@@ -27956,7 +27974,7 @@
         <v>62.79999999999992</v>
       </c>
       <c r="K542" t="n">
-        <v>-15.38461538461532</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L542" t="n">
         <v>34.14</v>
@@ -28007,7 +28025,7 @@
         <v>62.89999999999992</v>
       </c>
       <c r="K543" t="n">
-        <v>-7.692307692307525</v>
+        <v>-49.9999999999994</v>
       </c>
       <c r="L543" t="n">
         <v>34.09</v>
@@ -28058,7 +28076,7 @@
         <v>63.19999999999992</v>
       </c>
       <c r="K544" t="n">
-        <v>-21.42857142857145</v>
+        <v>-84.61538461538444</v>
       </c>
       <c r="L544" t="n">
         <v>34</v>
@@ -28109,7 +28127,7 @@
         <v>63.29999999999993</v>
       </c>
       <c r="K545" t="n">
-        <v>-30.76923076923056</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L545" t="n">
         <v>33.9</v>
@@ -28160,7 +28178,7 @@
         <v>63.39999999999993</v>
       </c>
       <c r="K546" t="n">
-        <v>-30.76923076923056</v>
+        <v>-53.84615384615334</v>
       </c>
       <c r="L546" t="n">
         <v>33.81</v>
@@ -28211,7 +28229,7 @@
         <v>63.49999999999993</v>
       </c>
       <c r="K547" t="n">
-        <v>-30.76923076923056</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L547" t="n">
         <v>33.75</v>

--- a/BackTest/2019-10-21 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-21 BackTest LAMB.xlsx
@@ -451,17 +451,13 @@
         <v>29.17666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>29.17333333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>29.17333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>29.17333333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>29.17833333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>29.18500000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>29.19</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>29.19833333333334</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>29.205</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>29.21166666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>29.215</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>29.225</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>29.22833333333334</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>29.23833333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>29.24333333333334</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>29.25</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>29.26</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>29.27</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>29.28166666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1270,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1311,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1352,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1393,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1434,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1475,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1516,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1557,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1598,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1639,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1680,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1721,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1762,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1797,22 +1571,14 @@
         <v>29.36666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1840,22 +1606,14 @@
         <v>29.365</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1883,22 +1641,14 @@
         <v>29.35666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1926,22 +1676,14 @@
         <v>29.35</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1969,22 +1711,14 @@
         <v>29.35333333333334</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2012,22 +1746,14 @@
         <v>29.34833333333334</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K39" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2055,22 +1781,14 @@
         <v>29.35</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2098,22 +1816,14 @@
         <v>29.35166666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2141,22 +1851,14 @@
         <v>29.35333333333334</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K42" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2184,22 +1886,14 @@
         <v>29.35666666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K43" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2227,22 +1921,14 @@
         <v>29.36500000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K44" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2270,22 +1956,14 @@
         <v>29.36500000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K45" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2313,22 +1991,14 @@
         <v>29.37333333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2356,22 +2026,14 @@
         <v>29.37333333333334</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K47" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2405,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2440,22 +2096,14 @@
         <v>29.38333333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K49" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2483,22 +2131,14 @@
         <v>29.38500000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K50" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2532,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2573,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2608,22 +2236,14 @@
         <v>29.38833333333334</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K53" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2651,22 +2271,14 @@
         <v>29.39500000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K54" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2694,22 +2306,14 @@
         <v>29.39666666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K55" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2737,22 +2341,14 @@
         <v>29.40000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K56" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2780,22 +2376,14 @@
         <v>29.39833333333334</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K57" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2823,22 +2411,14 @@
         <v>29.40000000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K58" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2866,22 +2446,14 @@
         <v>29.40166666666668</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K59" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2909,22 +2481,14 @@
         <v>29.40166666666668</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K60" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2952,22 +2516,14 @@
         <v>29.40333333333334</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K61" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2995,22 +2551,14 @@
         <v>29.40666666666668</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K62" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3038,22 +2586,14 @@
         <v>29.40833333333335</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K63" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3081,22 +2621,14 @@
         <v>29.40500000000001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K64" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3124,22 +2656,14 @@
         <v>29.40500000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K65" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3167,22 +2691,14 @@
         <v>29.40166666666668</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K66" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +2726,14 @@
         <v>29.39833333333334</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K67" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3253,22 +2761,14 @@
         <v>29.40000000000001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K68" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3302,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3343,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3384,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3425,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3466,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3507,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3548,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3589,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3630,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3671,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3712,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3753,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3794,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3835,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3876,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3917,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3958,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3999,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4040,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4081,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4122,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4163,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4204,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4245,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4286,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4327,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4368,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4409,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4450,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4491,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4532,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4573,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4614,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4655,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4696,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4737,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4778,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4819,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4860,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4901,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4942,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4983,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5024,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5065,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5106,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5147,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5188,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5229,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5270,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5311,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5352,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5393,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5434,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5475,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5516,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5557,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5598,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5639,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5680,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5721,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5762,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5803,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5844,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5885,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5926,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5961,20 +5071,18 @@
         <v>29.67833333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K134" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>29.5</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -6002,18 +5110,20 @@
         <v>29.68</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>29.8</v>
+      </c>
       <c r="K135" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M135" t="n">
@@ -6043,18 +5153,20 @@
         <v>29.68166666666666</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>29.6</v>
+      </c>
       <c r="K136" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M136" t="n">
@@ -6084,20 +5196,18 @@
         <v>29.685</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>29.6</v>
+      </c>
       <c r="K137" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>29.6</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6125,18 +5235,20 @@
         <v>29.68666666666666</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>29.6</v>
+      </c>
       <c r="K138" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M138" t="n">
@@ -6166,14 +5278,16 @@
         <v>29.68833333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>29.6</v>
+      </c>
       <c r="K139" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6207,14 +5321,16 @@
         <v>29.68999999999999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>29.6</v>
+      </c>
       <c r="K140" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6248,14 +5364,16 @@
         <v>29.68833333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>29.7</v>
+      </c>
       <c r="K141" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6289,14 +5407,16 @@
         <v>29.685</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K142" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6330,14 +5450,16 @@
         <v>29.685</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K143" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6371,14 +5493,16 @@
         <v>29.68166666666666</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K144" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6419,7 +5543,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6460,7 +5584,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6494,14 +5618,16 @@
         <v>29.67666666666666</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>29.6</v>
+      </c>
       <c r="K147" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6535,14 +5661,16 @@
         <v>29.67166666666666</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>29.4</v>
+      </c>
       <c r="K148" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6576,14 +5704,16 @@
         <v>29.665</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>29.4</v>
+      </c>
       <c r="K149" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6617,14 +5747,16 @@
         <v>29.65833333333333</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>29.4</v>
+      </c>
       <c r="K150" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6658,14 +5790,16 @@
         <v>29.65666666666667</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>29.4</v>
+      </c>
       <c r="K151" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6699,14 +5833,16 @@
         <v>29.64833333333333</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>29.7</v>
+      </c>
       <c r="K152" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6740,14 +5876,16 @@
         <v>29.63833333333333</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>29.3</v>
+      </c>
       <c r="K153" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6781,14 +5919,16 @@
         <v>29.62666666666667</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>29.3</v>
+      </c>
       <c r="K154" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6822,14 +5962,16 @@
         <v>29.625</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>29.3</v>
+      </c>
       <c r="K155" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6863,14 +6005,16 @@
         <v>29.62</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>29.7</v>
+      </c>
       <c r="K156" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6904,14 +6048,16 @@
         <v>29.60833333333333</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>29.3</v>
+      </c>
       <c r="K157" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6945,14 +6091,16 @@
         <v>29.6</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K158" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6986,14 +6134,16 @@
         <v>29.59166666666667</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K159" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -7027,14 +6177,16 @@
         <v>29.58</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K160" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -7068,14 +6220,16 @@
         <v>29.575</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K161" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -7118,7 +6272,7 @@
         <v>29.3</v>
       </c>
       <c r="K162" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -7161,7 +6315,7 @@
         <v>29.4</v>
       </c>
       <c r="K163" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -7201,10 +6355,10 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="K164" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -7247,7 +6401,7 @@
         <v>29.3</v>
       </c>
       <c r="K165" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -7290,7 +6444,7 @@
         <v>29.3</v>
       </c>
       <c r="K166" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -7333,7 +6487,7 @@
         <v>29.3</v>
       </c>
       <c r="K167" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -7367,16 +6521,14 @@
         <v>29.53666666666667</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -7416,10 +6568,10 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="K169" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7453,16 +6605,14 @@
         <v>29.52333333333333</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7496,16 +6646,14 @@
         <v>29.51666666666667</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7539,16 +6687,14 @@
         <v>29.50833333333333</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7582,16 +6728,14 @@
         <v>29.5</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7625,16 +6769,14 @@
         <v>29.495</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -7668,16 +6810,14 @@
         <v>29.49</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -7711,16 +6851,14 @@
         <v>29.48333333333333</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7754,16 +6892,14 @@
         <v>29.48</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7797,16 +6933,14 @@
         <v>29.47166666666667</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7840,16 +6974,14 @@
         <v>29.46833333333334</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7883,16 +7015,14 @@
         <v>29.46500000000001</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7926,16 +7056,14 @@
         <v>29.46333333333334</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7969,16 +7097,14 @@
         <v>29.45666666666667</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -8012,16 +7138,14 @@
         <v>29.44833333333334</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -8055,16 +7179,14 @@
         <v>29.44500000000001</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -8098,16 +7220,14 @@
         <v>29.44166666666668</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -8141,16 +7261,14 @@
         <v>29.43666666666668</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -8184,16 +7302,14 @@
         <v>29.43500000000002</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -8227,16 +7343,14 @@
         <v>29.42500000000002</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -8270,16 +7384,14 @@
         <v>29.41666666666669</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -8313,16 +7425,14 @@
         <v>29.40666666666669</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -8356,16 +7466,14 @@
         <v>29.40166666666669</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -8399,16 +7507,14 @@
         <v>29.39500000000002</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -8442,16 +7548,14 @@
         <v>29.39166666666669</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -8485,16 +7589,14 @@
         <v>29.38333333333336</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -8528,16 +7630,14 @@
         <v>29.37666666666669</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -8571,16 +7671,14 @@
         <v>29.36833333333336</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -8614,16 +7712,14 @@
         <v>29.36166666666669</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -8657,16 +7753,14 @@
         <v>29.35666666666669</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -8700,16 +7794,14 @@
         <v>29.35166666666669</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -8743,16 +7835,14 @@
         <v>29.34333333333336</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -8786,16 +7876,14 @@
         <v>29.33833333333336</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -8829,16 +7917,14 @@
         <v>29.33333333333336</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -8872,16 +7958,14 @@
         <v>29.33333333333336</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -8915,16 +7999,14 @@
         <v>29.33000000000003</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -8958,16 +8040,14 @@
         <v>29.32833333333336</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -9001,16 +8081,14 @@
         <v>29.32333333333336</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -9044,16 +8122,14 @@
         <v>29.32166666666669</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -9087,16 +8163,14 @@
         <v>29.32166666666669</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -9130,16 +8204,14 @@
         <v>29.31833333333336</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -9173,16 +8245,14 @@
         <v>29.31666666666669</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -9216,16 +8286,14 @@
         <v>29.31000000000002</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -9259,16 +8327,14 @@
         <v>29.31000000000002</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -9302,16 +8368,14 @@
         <v>29.30833333333335</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -9345,16 +8409,14 @@
         <v>29.30666666666669</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -9388,16 +8450,14 @@
         <v>29.30166666666669</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -9431,16 +8491,14 @@
         <v>29.30000000000003</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -9474,16 +8532,14 @@
         <v>29.30166666666669</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -9517,16 +8573,14 @@
         <v>29.30166666666669</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -9560,16 +8614,14 @@
         <v>29.30166666666669</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -9603,16 +8655,14 @@
         <v>29.30166666666669</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -9646,16 +8696,14 @@
         <v>29.30166666666669</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -9689,16 +8737,14 @@
         <v>29.30000000000002</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -9732,16 +8778,14 @@
         <v>29.29500000000002</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -9775,16 +8819,14 @@
         <v>29.29500000000002</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -9818,16 +8860,14 @@
         <v>29.29333333333335</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -9861,16 +8901,14 @@
         <v>29.29166666666669</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -9904,16 +8942,14 @@
         <v>29.29000000000002</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -9947,16 +8983,14 @@
         <v>29.28833333333336</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -9990,16 +9024,14 @@
         <v>29.29166666666669</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -10033,16 +9065,14 @@
         <v>29.29166666666669</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -10076,16 +9106,14 @@
         <v>29.29000000000002</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -10119,16 +9147,14 @@
         <v>29.29333333333336</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -10162,16 +9188,14 @@
         <v>29.29166666666669</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -10205,16 +9229,14 @@
         <v>29.29333333333336</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -10248,16 +9270,14 @@
         <v>29.29166666666669</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -10291,16 +9311,14 @@
         <v>29.29000000000002</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -10334,16 +9352,14 @@
         <v>29.28500000000003</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -10377,16 +9393,14 @@
         <v>29.27833333333336</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -10420,16 +9434,14 @@
         <v>29.27000000000002</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>29</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -10470,7 +9482,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -10511,7 +9523,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -10552,7 +9564,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -10586,16 +9598,14 @@
         <v>29.25666666666669</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -10629,16 +9639,14 @@
         <v>29.25000000000002</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -10672,16 +9680,14 @@
         <v>29.24333333333335</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>29</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -10715,16 +9721,14 @@
         <v>29.24000000000002</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>29</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -10758,16 +9762,14 @@
         <v>29.23500000000001</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -10801,16 +9803,14 @@
         <v>29.23500000000001</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -10844,16 +9844,14 @@
         <v>29.23666666666668</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -10887,16 +9885,14 @@
         <v>29.23666666666668</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -10930,16 +9926,14 @@
         <v>29.23500000000001</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -10973,16 +9967,14 @@
         <v>29.23333333333334</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -11016,16 +10008,14 @@
         <v>29.23000000000001</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -11059,16 +10049,14 @@
         <v>29.23000000000001</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -11102,16 +10090,14 @@
         <v>29.23000000000001</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -11145,16 +10131,14 @@
         <v>29.23166666666668</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -11188,16 +10172,14 @@
         <v>29.23166666666668</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -11231,16 +10213,14 @@
         <v>29.23166666666668</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -11274,16 +10254,14 @@
         <v>29.23000000000001</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -11317,16 +10295,14 @@
         <v>29.23000000000001</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -11360,16 +10336,14 @@
         <v>29.22666666666668</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -11403,16 +10377,14 @@
         <v>29.22666666666668</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -11446,16 +10418,14 @@
         <v>29.22166666666668</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -11489,16 +10459,14 @@
         <v>29.22000000000002</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -11532,16 +10500,14 @@
         <v>29.21666666666668</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -11575,16 +10541,14 @@
         <v>29.21500000000002</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -11618,16 +10582,14 @@
         <v>29.21166666666668</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -11661,16 +10623,14 @@
         <v>29.20666666666668</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -11704,16 +10664,14 @@
         <v>29.20500000000001</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -11747,16 +10705,14 @@
         <v>29.20166666666668</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -11790,16 +10746,14 @@
         <v>29.19833333333334</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -11833,16 +10787,14 @@
         <v>29.19500000000001</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -11876,16 +10828,14 @@
         <v>29.19166666666667</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -11919,16 +10869,14 @@
         <v>29.18666666666667</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>29</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -11962,16 +10910,14 @@
         <v>29.18333333333334</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -12012,7 +10958,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -12046,16 +10992,14 @@
         <v>29.17833333333334</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -12089,16 +11033,14 @@
         <v>29.18</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -12132,16 +11074,14 @@
         <v>29.17833333333333</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -12175,16 +11115,14 @@
         <v>29.17833333333333</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -12218,16 +11156,14 @@
         <v>29.17666666666667</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -12261,16 +11197,14 @@
         <v>29.175</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -12304,16 +11238,14 @@
         <v>29.17833333333334</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -12347,16 +11279,14 @@
         <v>29.175</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -12390,16 +11320,14 @@
         <v>29.17333333333334</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -12433,16 +11361,14 @@
         <v>29.17166666666667</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -12476,16 +11402,14 @@
         <v>29.17333333333333</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -12519,16 +11443,14 @@
         <v>29.17333333333333</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -12562,16 +11484,14 @@
         <v>29.17166666666666</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -12605,16 +11525,14 @@
         <v>29.16999999999999</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -12648,16 +11566,14 @@
         <v>29.17499999999999</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -12691,16 +11607,14 @@
         <v>29.17833333333332</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -12734,16 +11648,14 @@
         <v>29.18166666666666</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -12777,16 +11689,14 @@
         <v>29.18333333333332</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -12820,16 +11730,14 @@
         <v>29.18666666666666</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -12863,16 +11771,14 @@
         <v>29.18833333333332</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -12906,16 +11812,14 @@
         <v>29.19333333333332</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -12949,16 +11853,14 @@
         <v>29.20166666666665</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -12992,16 +11894,14 @@
         <v>29.21166666666665</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -13042,7 +11942,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -13083,7 +11983,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -13124,7 +12024,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -13165,7 +12065,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -13206,7 +12106,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -13247,7 +12147,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -13288,7 +12188,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -13329,7 +12229,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -13363,16 +12263,14 @@
         <v>29.25833333333332</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -13413,7 +12311,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -13447,16 +12345,14 @@
         <v>29.26166666666666</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -13490,16 +12386,14 @@
         <v>29.26166666666666</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -13533,16 +12427,14 @@
         <v>29.25999999999999</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -13576,16 +12468,14 @@
         <v>29.26166666666666</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -13619,16 +12509,14 @@
         <v>29.25999999999999</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -13662,16 +12550,14 @@
         <v>29.26166666666666</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -13705,16 +12591,14 @@
         <v>29.25833333333333</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>29</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -13748,16 +12632,14 @@
         <v>29.25999999999999</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -13791,16 +12673,14 @@
         <v>29.25666666666666</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -13834,16 +12714,14 @@
         <v>29.25833333333332</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -13877,16 +12755,14 @@
         <v>29.25666666666665</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -13920,16 +12796,14 @@
         <v>29.25833333333332</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -13963,16 +12837,14 @@
         <v>29.25833333333332</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>29</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -14006,16 +12878,14 @@
         <v>29.25499999999998</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -14049,16 +12919,14 @@
         <v>29.25166666666665</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>29</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -14092,16 +12960,14 @@
         <v>29.25499999999998</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>29</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -14135,16 +13001,14 @@
         <v>29.25166666666665</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>29</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -14178,16 +13042,14 @@
         <v>29.25166666666665</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -14221,16 +13083,14 @@
         <v>29.24999999999999</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>29</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -14264,16 +13124,14 @@
         <v>29.24999999999999</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -14307,16 +13165,14 @@
         <v>29.25166666666665</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -14350,16 +13206,14 @@
         <v>29.24999999999999</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>29</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -14393,16 +13247,14 @@
         <v>29.24999999999999</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -14436,16 +13288,14 @@
         <v>29.25166666666665</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -14479,16 +13329,14 @@
         <v>29.25333333333332</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>29</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -14522,16 +13370,14 @@
         <v>29.25166666666665</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -14565,16 +13411,14 @@
         <v>29.24999999999999</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>29</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -14608,16 +13452,14 @@
         <v>29.24999999999999</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -14651,16 +13493,14 @@
         <v>29.24499999999999</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>29</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -14694,16 +13534,14 @@
         <v>29.24333333333332</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>29</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -14737,16 +13575,14 @@
         <v>29.24166666666665</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>29</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -14780,16 +13616,14 @@
         <v>29.23833333333332</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>29</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -14823,16 +13657,14 @@
         <v>29.23499999999998</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>29</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -14866,16 +13698,14 @@
         <v>29.22999999999998</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>29</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -14909,16 +13739,14 @@
         <v>29.22833333333332</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>29</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -14959,7 +13787,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -14993,16 +13821,14 @@
         <v>29.22833333333332</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -15036,16 +13862,14 @@
         <v>29.22166666666665</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -15079,16 +13903,14 @@
         <v>29.21499999999999</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -15122,16 +13944,14 @@
         <v>29.21166666666666</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -15165,16 +13985,14 @@
         <v>29.20499999999999</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -15208,16 +14026,14 @@
         <v>29.19833333333332</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -15251,16 +14067,14 @@
         <v>29.19166666666666</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -15294,16 +14108,14 @@
         <v>29.18499999999999</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>29</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -15337,16 +14149,14 @@
         <v>29.18166666666666</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -15380,16 +14190,14 @@
         <v>29.17333333333332</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>29</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -15423,16 +14231,14 @@
         <v>29.16499999999999</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>29</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -15466,16 +14272,14 @@
         <v>29.16166666666665</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -15509,16 +14313,14 @@
         <v>29.15333333333332</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>29</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -15552,16 +14354,14 @@
         <v>29.14999999999999</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>29</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -15595,16 +14395,14 @@
         <v>29.14166666666666</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>29</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -15638,16 +14436,14 @@
         <v>29.13333333333332</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>29</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -15681,16 +14477,14 @@
         <v>29.12499999999999</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>29</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -15724,16 +14518,14 @@
         <v>29.11833333333332</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -15767,16 +14559,14 @@
         <v>29.11499999999999</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -15810,16 +14600,14 @@
         <v>29.10666666666665</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -15853,16 +14641,14 @@
         <v>29.09999999999999</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>29</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -15896,16 +14682,14 @@
         <v>29.08999999999999</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -15939,16 +14723,14 @@
         <v>29.08499999999999</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -15982,16 +14764,14 @@
         <v>29.07833333333332</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>29</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -16025,16 +14805,14 @@
         <v>29.07166666666666</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>29</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -16068,16 +14846,14 @@
         <v>29.06999999999999</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -16111,16 +14887,14 @@
         <v>29.07166666666665</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -16154,16 +14928,14 @@
         <v>29.06833333333332</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>29</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -16197,16 +14969,14 @@
         <v>29.06833333333332</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>29</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -16240,16 +15010,14 @@
         <v>29.06666666666666</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -16283,16 +15051,14 @@
         <v>29.06666666666666</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -16326,16 +15092,14 @@
         <v>29.06499999999999</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -16369,16 +15133,14 @@
         <v>29.06999999999999</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -16412,16 +15174,14 @@
         <v>29.06833333333333</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>29</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -16455,16 +15215,14 @@
         <v>29.06833333333333</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -16498,16 +15256,14 @@
         <v>29.06833333333333</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -16541,16 +15297,14 @@
         <v>29.06666666666666</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -16584,16 +15338,14 @@
         <v>29.06833333333332</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -16627,16 +15379,14 @@
         <v>29.06833333333332</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>29</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -16670,16 +15420,14 @@
         <v>29.06333333333333</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -16713,16 +15461,14 @@
         <v>29.06666666666666</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -16756,16 +15502,14 @@
         <v>29.06833333333333</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -16799,16 +15543,14 @@
         <v>29.07166666666666</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -16842,16 +15584,14 @@
         <v>29.07333333333333</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -16885,16 +15625,14 @@
         <v>29.07333333333333</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -16928,16 +15666,14 @@
         <v>29.07333333333333</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -16971,16 +15707,14 @@
         <v>29.075</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -17014,16 +15748,14 @@
         <v>29.07666666666667</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -17057,16 +15789,14 @@
         <v>29.08</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -17100,16 +15830,14 @@
         <v>29.08</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -17143,16 +15871,14 @@
         <v>29.08166666666667</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -17193,7 +15919,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -17227,16 +15953,14 @@
         <v>29.08833333333333</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -17270,16 +15994,14 @@
         <v>29.085</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>29</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -17313,16 +16035,14 @@
         <v>29.08666666666667</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -17363,7 +16083,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -17397,16 +16117,14 @@
         <v>29.09</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -17440,16 +16158,14 @@
         <v>29.09166666666667</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -17483,16 +16199,14 @@
         <v>29.09666666666667</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -17526,16 +16240,14 @@
         <v>29.1</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -17569,16 +16281,14 @@
         <v>29.105</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -17612,16 +16322,14 @@
         <v>29.115</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
@@ -17655,16 +16363,14 @@
         <v>29.125</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
@@ -17698,16 +16404,14 @@
         <v>29.12833333333333</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -17741,16 +16445,14 @@
         <v>29.13833333333333</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
@@ -17784,16 +16486,14 @@
         <v>29.15166666666667</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
@@ -17827,16 +16527,14 @@
         <v>29.16166666666667</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -17877,7 +16575,7 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -17918,7 +16616,7 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -17959,7 +16657,7 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -18000,7 +16698,7 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -18041,7 +16739,7 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -18082,7 +16780,7 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -18123,7 +16821,7 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -18164,7 +16862,7 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -18205,7 +16903,7 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -18246,7 +16944,7 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -18287,7 +16985,7 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -18328,7 +17026,7 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -18369,7 +17067,7 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -18410,7 +17108,7 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -18451,7 +17149,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -18492,7 +17190,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -18533,7 +17231,7 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -18574,7 +17272,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -18615,7 +17313,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -18656,7 +17354,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -18697,7 +17395,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -18738,7 +17436,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -18779,7 +17477,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -18820,7 +17518,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -18861,7 +17559,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -18902,7 +17600,7 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -18943,7 +17641,7 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -18984,7 +17682,7 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -19025,7 +17723,7 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -19066,7 +17764,7 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -19107,7 +17805,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -19148,7 +17846,7 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -19189,7 +17887,7 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -19230,7 +17928,7 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -19271,7 +17969,7 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -19312,7 +18010,7 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -19353,7 +18051,7 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -19394,7 +18092,7 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -19435,7 +18133,7 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -19476,7 +18174,7 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -19517,7 +18215,7 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -19558,7 +18256,7 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -19599,7 +18297,7 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -19640,7 +18338,7 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -19681,7 +18379,7 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -19722,7 +18420,7 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -19759,19 +18457,19 @@
         <v>0</v>
       </c>
       <c r="I459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>1</v>
+        <v>1.072702702702703</v>
       </c>
     </row>
     <row r="460">
@@ -19803,14 +18501,8 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -19844,14 +18536,8 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -19885,14 +18571,8 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -19923,19 +18603,13 @@
         <v>0</v>
       </c>
       <c r="I463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
-        <v>1.090890410958904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -20034,7 +18708,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
@@ -20069,7 +18743,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
@@ -20104,7 +18778,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
@@ -20139,7 +18813,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
@@ -21014,7 +19688,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
@@ -21049,7 +19723,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
@@ -21084,7 +19758,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
@@ -21119,7 +19793,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
@@ -21154,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
@@ -21749,7 +20423,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
@@ -21784,7 +20458,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
@@ -21819,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
@@ -21924,7 +20598,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>

--- a/BackTest/2019-10-21 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-21 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1144,11 +1144,17 @@
         <v>-732921.3263</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>29</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1183,17 @@
         <v>-732921.3263</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1222,17 @@
         <v>-732921.3263</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1261,17 @@
         <v>-732921.3263</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>29</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1300,17 @@
         <v>-732911.3263</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>29</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1339,17 @@
         <v>-732911.3263</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1378,17 @@
         <v>-733392.1381</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1417,17 @@
         <v>-733382.1381</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1456,17 @@
         <v>-733382.1381</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1495,17 @@
         <v>-733382.1381</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1534,17 @@
         <v>-733362.1381</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1573,17 @@
         <v>-733362.1381</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1612,17 @@
         <v>-717610.1573</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1651,17 @@
         <v>-718110.1573</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1694,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1731,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1768,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1805,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1842,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1879,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1916,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1953,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1990,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2027,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2064,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2101,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2138,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2175,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2212,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2249,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2286,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2323,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2360,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2397,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2434,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2471,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2508,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2545,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2582,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2619,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2656,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,15 +2689,15 @@
         <v>-744138.7061</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2537,12 +2729,10 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2573,17 +2763,13 @@
         <v>-744128.7061</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -2617,9 +2803,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2656,9 +2840,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2695,9 +2877,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2734,9 +2914,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2773,9 +2951,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2812,9 +2988,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2851,9 +3025,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2890,9 +3062,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2929,9 +3099,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2968,9 +3136,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3007,9 +3173,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3046,9 +3210,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3085,9 +3247,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3124,9 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3163,9 +3321,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3202,9 +3358,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3241,9 +3395,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3280,9 +3432,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3319,9 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3358,9 +3506,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3397,9 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3436,9 +3580,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3475,9 +3617,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3514,9 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3553,9 +3691,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3592,9 +3728,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3631,9 +3765,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,9 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3709,9 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3748,9 +3876,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3787,9 +3913,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,9 +3950,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,9 +3987,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,9 +4024,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3943,9 +4061,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3982,9 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,9 +4135,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4060,9 +4172,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4099,9 +4209,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4138,9 +4246,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4177,9 +4283,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4216,9 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4255,9 +4357,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,9 +4394,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,9 +4431,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4372,9 +4468,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4411,9 +4505,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4450,9 +4542,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4489,9 +4579,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,9 +4616,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4567,9 +4653,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4606,9 +4690,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4645,9 +4727,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4684,9 +4764,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4723,9 +4801,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4762,9 +4838,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4801,9 +4875,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4840,9 +4912,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4879,9 +4949,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4918,9 +4986,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4957,9 +5023,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4996,9 +5060,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5035,9 +5097,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5074,9 +5134,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5113,9 +5171,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5152,9 +5208,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,9 +5245,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,9 +5282,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,9 +5319,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,9 +5356,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5347,9 +5393,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,9 +5430,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5425,9 +5467,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5464,9 +5504,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5503,9 +5541,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,9 +5578,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5581,9 +5615,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5620,9 +5652,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5659,9 +5689,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5698,9 +5726,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5737,9 +5763,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5776,9 +5800,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5815,9 +5837,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5854,9 +5874,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5893,9 +5911,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5932,9 +5948,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5971,9 +5985,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6010,9 +6022,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6049,9 +6059,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6088,9 +6096,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6127,9 +6133,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6166,9 +6170,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6205,9 +6207,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6244,9 +6244,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6283,9 +6281,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6322,9 +6318,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6361,9 +6355,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6400,9 +6392,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6439,9 +6429,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6478,9 +6466,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6517,9 +6503,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6556,9 +6540,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6595,9 +6577,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6634,9 +6614,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6673,9 +6651,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6712,9 +6688,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6751,9 +6725,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6790,9 +6762,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6829,9 +6799,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6868,9 +6836,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6907,9 +6873,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6946,9 +6910,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6985,9 +6947,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7024,9 +6984,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7063,9 +7021,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7102,9 +7058,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7141,9 +7095,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7180,9 +7132,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7219,9 +7169,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7258,9 +7206,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7297,9 +7243,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7336,9 +7280,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7375,9 +7317,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7414,9 +7354,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7453,9 +7391,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7492,9 +7428,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7531,9 +7465,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7570,9 +7502,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7609,9 +7539,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7648,9 +7576,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7687,9 +7613,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7726,9 +7650,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7765,9 +7687,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7804,9 +7724,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7843,9 +7761,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7882,9 +7798,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7921,9 +7835,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7960,9 +7872,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7999,9 +7909,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8038,9 +7946,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8077,9 +7983,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8116,9 +8020,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8155,9 +8057,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8194,9 +8094,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8233,9 +8131,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8272,9 +8168,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8311,9 +8205,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8350,9 +8242,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8389,9 +8279,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8428,9 +8316,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8467,9 +8353,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8506,9 +8390,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8545,9 +8427,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8584,9 +8464,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8623,9 +8501,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8662,9 +8538,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8701,9 +8575,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8740,9 +8612,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8779,9 +8649,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8818,9 +8686,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8857,9 +8723,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8896,9 +8760,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8935,9 +8797,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8974,9 +8834,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9013,9 +8871,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9052,9 +8908,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9091,9 +8945,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9130,9 +8982,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9169,9 +9019,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9208,9 +9056,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9247,9 +9093,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9286,9 +9130,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9325,9 +9167,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9364,9 +9204,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9403,9 +9241,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9442,9 +9278,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9481,9 +9315,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9520,9 +9352,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9559,9 +9389,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9598,9 +9426,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9637,9 +9463,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9676,9 +9500,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9715,9 +9537,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9754,9 +9574,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9793,9 +9611,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9832,9 +9648,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9871,9 +9685,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9910,9 +9722,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9949,9 +9759,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9988,9 +9796,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10027,9 +9833,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10066,9 +9870,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10105,9 +9907,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10144,9 +9944,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10183,9 +9981,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10222,9 +10018,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10261,9 +10055,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10300,9 +10092,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10339,9 +10129,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10378,9 +10166,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10417,9 +10203,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10456,9 +10240,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10495,9 +10277,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10534,9 +10314,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10573,9 +10351,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10612,9 +10388,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10651,9 +10425,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10690,9 +10462,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10729,9 +10499,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10768,9 +10536,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10807,9 +10573,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10846,9 +10610,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10885,9 +10647,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10924,9 +10684,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10963,9 +10721,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11002,9 +10758,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11041,9 +10795,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11080,9 +10832,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11119,9 +10869,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11158,9 +10906,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11197,9 +10943,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11236,9 +10980,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11275,9 +11017,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11314,9 +11054,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11353,9 +11091,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11392,9 +11128,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11431,9 +11165,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11470,9 +11202,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11509,9 +11239,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11548,9 +11276,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11587,9 +11313,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11626,9 +11350,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11665,9 +11387,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11704,9 +11424,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11743,9 +11461,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11782,9 +11498,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11818,12 +11532,12 @@
         <v>-1736140.8856</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11857,12 +11571,12 @@
         <v>-1736140.8856</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>29</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11896,14 +11610,12 @@
         <v>-1724831.5544</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>29</v>
       </c>
-      <c r="J305" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11937,14 +11649,12 @@
         <v>-1724831.5544</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>29.1</v>
       </c>
-      <c r="J306" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11978,14 +11688,12 @@
         <v>-1721875.6709</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>29.1</v>
       </c>
-      <c r="J307" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12019,14 +11727,12 @@
         <v>-1720079.6709</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>29.2</v>
       </c>
-      <c r="J308" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12060,14 +11766,12 @@
         <v>-1725416.6709</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>29.3</v>
       </c>
-      <c r="J309" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12101,12 +11805,12 @@
         <v>-1725416.6709</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12140,12 +11844,12 @@
         <v>-1726174.164300001</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12179,12 +11883,12 @@
         <v>-1726174.164300001</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12218,14 +11922,10 @@
         <v>-1726164.0533</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J313" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12259,14 +11959,10 @@
         <v>-1746864.0533</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J314" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12300,14 +11996,10 @@
         <v>-1746864.0533</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J315" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12341,14 +12033,10 @@
         <v>-1746864.0533</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J316" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12385,9 +12073,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12421,14 +12107,10 @@
         <v>-1751469.252800001</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J318" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12465,9 +12147,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12504,9 +12184,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12543,9 +12221,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12579,12 +12255,12 @@
         <v>-1740686.056700001</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12621,9 +12297,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12657,12 +12331,12 @@
         <v>-1750686.056700001</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12696,12 +12370,12 @@
         <v>-1750676.056700001</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12735,12 +12409,12 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12774,12 +12448,12 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12813,12 +12487,12 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12852,14 +12526,12 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>29.1</v>
       </c>
-      <c r="J329" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12893,14 +12565,10 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J330" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12934,14 +12602,10 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J331" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12975,14 +12639,12 @@
         <v>-1847667.024400001</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>29.1</v>
       </c>
-      <c r="J332" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13016,14 +12678,12 @@
         <v>-2163389.939800001</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>29</v>
       </c>
-      <c r="J333" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13060,9 +12720,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13099,9 +12757,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13138,9 +12794,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13177,9 +12831,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13216,9 +12868,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13255,9 +12905,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13294,9 +12942,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13333,9 +12979,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13372,9 +13016,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13411,9 +13053,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13447,12 +13087,12 @@
         <v>-1973460.309100001</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13489,9 +13129,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13528,9 +13166,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13567,9 +13203,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13606,9 +13240,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13645,9 +13277,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13684,9 +13314,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13723,9 +13351,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13762,9 +13388,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13801,9 +13425,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13840,9 +13462,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13879,9 +13499,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13918,9 +13536,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13957,9 +13573,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13996,9 +13610,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14035,9 +13647,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14074,9 +13684,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14113,9 +13721,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14152,9 +13758,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14191,9 +13795,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14230,9 +13832,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14269,9 +13869,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14308,9 +13906,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14347,9 +13943,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14386,9 +13980,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14425,9 +14017,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14464,9 +14054,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14503,9 +14091,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14542,9 +14128,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14581,9 +14165,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14620,9 +14202,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14659,9 +14239,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14698,9 +14276,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14737,9 +14313,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14776,9 +14350,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14815,9 +14387,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14854,9 +14424,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14893,9 +14461,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14932,9 +14498,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14971,9 +14535,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15010,9 +14572,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15049,9 +14609,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15088,9 +14646,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15127,9 +14683,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15166,9 +14720,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15205,9 +14757,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15241,14 +14791,10 @@
         <v>-1828867.085300001</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J390" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15282,14 +14828,10 @@
         <v>-1824867.085300001</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>29</v>
-      </c>
-      <c r="J391" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15323,14 +14865,12 @@
         <v>-1824867.085300001</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>29.1</v>
       </c>
-      <c r="J392" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15364,14 +14904,10 @@
         <v>-1835822.728500001</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J393" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15405,14 +14941,10 @@
         <v>-1831822.728500001</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>29</v>
-      </c>
-      <c r="J394" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15446,14 +14978,10 @@
         <v>-1834425.263500001</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J395" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15487,14 +15015,10 @@
         <v>-1806025.263500001</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="n">
-        <v>29</v>
-      </c>
-      <c r="J396" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15528,14 +15052,12 @@
         <v>-1816652.839300001</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>29.1</v>
       </c>
-      <c r="J397" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15569,14 +15091,12 @@
         <v>-1816652.839300001</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>29</v>
       </c>
-      <c r="J398" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15610,14 +15130,12 @@
         <v>-1753852.839300001</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>29</v>
       </c>
-      <c r="J399" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15651,14 +15169,12 @@
         <v>-1947127.839300001</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>29.1</v>
       </c>
-      <c r="J400" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15692,14 +15208,10 @@
         <v>-1947127.839300001</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>29</v>
-      </c>
-      <c r="J401" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15733,14 +15245,10 @@
         <v>-1947127.839300001</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>29</v>
-      </c>
-      <c r="J402" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15774,14 +15282,10 @@
         <v>-1947127.839300001</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>29</v>
-      </c>
-      <c r="J403" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15815,14 +15319,10 @@
         <v>-1932609.660700001</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
-      </c>
-      <c r="I404" t="n">
-        <v>29</v>
-      </c>
-      <c r="J404" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15859,9 +15359,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15895,14 +15393,10 @@
         <v>-1932719.660700001</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
-      </c>
-      <c r="I406" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J406" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15936,14 +15430,12 @@
         <v>-1932719.660700001</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>28.9</v>
       </c>
-      <c r="J407" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15977,14 +15469,12 @@
         <v>-1932708.660700001</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>28.9</v>
       </c>
-      <c r="J408" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16018,14 +15508,12 @@
         <v>-1932730.660700001</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>29.1</v>
       </c>
-      <c r="J409" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16059,14 +15547,12 @@
         <v>-1891381.395100001</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>28.9</v>
       </c>
-      <c r="J410" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16100,14 +15586,12 @@
         <v>-1818563.861600001</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>29.1</v>
       </c>
-      <c r="J411" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16141,14 +15625,10 @@
         <v>-1856138.579400001</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J412" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16182,14 +15662,12 @@
         <v>-1847538.579400001</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>29.1</v>
       </c>
-      <c r="J413" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16223,14 +15701,10 @@
         <v>-1847548.579400001</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J414" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16264,14 +15738,12 @@
         <v>-1847548.579400001</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>29</v>
       </c>
-      <c r="J415" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16305,14 +15777,10 @@
         <v>-1845842.094758363</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>29</v>
-      </c>
-      <c r="J416" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16346,14 +15814,10 @@
         <v>-1845852.094758363</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J417" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16390,9 +15854,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16426,14 +15888,10 @@
         <v>-1845844.241558363</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J419" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16467,14 +15925,10 @@
         <v>-1845844.241558363</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
-      </c>
-      <c r="I420" t="n">
-        <v>29</v>
-      </c>
-      <c r="J420" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16511,9 +15965,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16547,12 +15999,12 @@
         <v>-1833091.572358363</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>29</v>
+      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16589,9 +16041,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16625,14 +16075,10 @@
         <v>-1840926.085858363</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J424" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16666,12 +16112,12 @@
         <v>-1850731.063958363</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>29</v>
+      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16705,14 +16151,12 @@
         <v>-1850731.063958363</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>28.9</v>
       </c>
-      <c r="J426" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16746,14 +16190,12 @@
         <v>-1850731.063958363</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>28.9</v>
       </c>
-      <c r="J427" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16787,14 +16229,10 @@
         <v>-1842487.063958363</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
-      </c>
-      <c r="I428" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J428" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16828,14 +16266,12 @@
         <v>-1845008.063958363</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>29</v>
       </c>
-      <c r="J429" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16869,14 +16305,12 @@
         <v>-1769998.063958363</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>28.9</v>
       </c>
-      <c r="J430" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16910,14 +16344,12 @@
         <v>-1769998.063958363</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>29.1</v>
       </c>
-      <c r="J431" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16951,14 +16383,12 @@
         <v>-1770008.063958363</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>29.1</v>
       </c>
-      <c r="J432" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16992,14 +16422,12 @@
         <v>-1762692.479258363</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>29</v>
       </c>
-      <c r="J433" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17033,14 +16461,10 @@
         <v>-1762692.479258363</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
-      </c>
-      <c r="I434" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J434" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17074,14 +16498,10 @@
         <v>-1762813.479258363</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
-      </c>
-      <c r="I435" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J435" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17115,14 +16535,12 @@
         <v>-1760913.479258363</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>29</v>
       </c>
-      <c r="J436" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17156,14 +16574,12 @@
         <v>-1757413.479258363</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>29.2</v>
       </c>
-      <c r="J437" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17197,12 +16613,12 @@
         <v>-1757454.479258363</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17236,14 +16652,10 @@
         <v>-1941670.774058363</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J439" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17280,9 +16692,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17316,14 +16726,10 @@
         <v>-1941670.774058363</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J441" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17357,14 +16763,10 @@
         <v>-1941670.774058363</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J442" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17398,14 +16800,10 @@
         <v>-1941700.774058363</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J443" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17439,14 +16837,10 @@
         <v>-1941700.774058363</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>29</v>
-      </c>
-      <c r="J444" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17480,14 +16874,10 @@
         <v>-1939200.774058363</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="n">
-        <v>29</v>
-      </c>
-      <c r="J445" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17524,9 +16914,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17560,14 +16948,12 @@
         <v>-1939200.774058363</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>29.2</v>
       </c>
-      <c r="J447" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17604,9 +16990,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17643,9 +17027,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17682,9 +17064,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17721,9 +17101,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17760,9 +17138,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17799,9 +17175,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17838,9 +17212,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17877,9 +17249,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17916,9 +17286,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17955,9 +17323,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17994,9 +17360,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18033,9 +17397,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18072,9 +17434,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18111,9 +17471,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18150,9 +17508,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18186,12 +17542,12 @@
         <v>-2521587.225958363</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18228,9 +17584,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18264,12 +17618,12 @@
         <v>-2474587.225958363</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18303,12 +17657,12 @@
         <v>-2427187.225958363</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>29.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18342,12 +17696,12 @@
         <v>-2427187.225958363</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
         <v>29.5</v>
       </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18384,9 +17738,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18423,9 +17775,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18462,9 +17812,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18501,9 +17849,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18540,9 +17886,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18579,9 +17923,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18618,9 +17960,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18657,9 +17997,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18696,9 +18034,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18735,9 +18071,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18774,9 +18108,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18813,9 +18145,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18852,9 +18182,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18891,9 +18219,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18930,9 +18256,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18969,9 +18293,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19008,9 +18330,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19047,9 +18367,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19086,9 +18404,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19125,9 +18441,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19164,9 +18478,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19203,9 +18515,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19242,9 +18552,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19281,9 +18589,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19320,9 +18626,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19359,9 +18663,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19398,9 +18700,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19437,9 +18737,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19476,9 +18774,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19515,9 +18811,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19554,9 +18848,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19593,9 +18885,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19632,9 +18922,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19671,9 +18959,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19710,9 +18996,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19749,9 +19033,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19788,9 +19070,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19827,9 +19107,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19866,9 +19144,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19905,9 +19181,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19944,9 +19218,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19983,9 +19255,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20022,9 +19292,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20061,9 +19329,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20100,9 +19366,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20139,9 +19403,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20178,9 +19440,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20217,9 +19477,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20256,9 +19514,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20295,9 +19551,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20334,9 +19588,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20370,12 +19622,10 @@
         <v>-1523340.579058363</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20412,9 +19662,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20451,9 +19699,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20490,9 +19736,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20526,12 +19770,10 @@
         <v>-1125873.087273817</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20565,12 +19807,10 @@
         <v>-940668.3979738173</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20604,12 +19844,10 @@
         <v>-834441.4862738173</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20643,12 +19881,10 @@
         <v>-1082512.146773817</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20682,12 +19918,10 @@
         <v>-1174862.712173817</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20721,12 +19955,10 @@
         <v>-1163004.100073817</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20760,12 +19992,10 @@
         <v>-1163004.100073817</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20802,9 +20032,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20841,9 +20069,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20880,9 +20106,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20919,9 +20143,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20958,9 +20180,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20997,9 +20217,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21036,9 +20254,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21072,12 +20288,10 @@
         <v>-1109903.326073817</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21114,9 +20328,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21150,12 +20362,10 @@
         <v>-1143967.334073817</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21192,9 +20402,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21231,9 +20439,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21270,9 +20476,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21309,9 +20513,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21348,9 +20550,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21387,9 +20587,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21426,9 +20624,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21465,9 +20661,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21504,9 +20698,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21540,12 +20732,10 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21582,9 +20772,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21621,9 +20809,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21660,9 +20846,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21699,9 +20883,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21738,9 +20920,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21777,9 +20957,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21816,9 +20994,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21855,9 +21031,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21894,9 +21068,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21933,9 +21105,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21972,9 +21142,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22011,9 +21179,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22050,9 +21216,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22086,23 +21250,19 @@
         <v>-120754.1215807642</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L563" t="n">
-        <v>1.117033898305085</v>
-      </c>
-      <c r="M563" t="n">
-        <v>1.027681660899654</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -22127,11 +21287,15 @@
         <v>-107169.5254807642</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22160,11 +21324,15 @@
         <v>-107169.5254807642</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22193,11 +21361,15 @@
         <v>-114007.9174152053</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -22226,11 +21398,15 @@
         <v>-116412.1286152053</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -22259,11 +21435,15 @@
         <v>-1814.655615205294</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -22292,11 +21472,15 @@
         <v>-102074.7020152053</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -22329,7 +21513,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -22358,11 +21546,15 @@
         <v>180467.2398847947</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22391,11 +21583,15 @@
         <v>710757.0186847947</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22428,7 +21624,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22457,11 +21657,15 @@
         <v>1144541.083684795</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -22490,11 +21694,15 @@
         <v>1252872.577684795</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22523,11 +21731,15 @@
         <v>1279923.891584795</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -22556,11 +21768,15 @@
         <v>1616612.971584795</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22589,11 +21805,15 @@
         <v>1549439.256684795</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22622,11 +21842,15 @@
         <v>1549439.256684795</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22655,14 +21879,16 @@
         <v>1005277.932084795</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="n">
-        <v>1</v>
-      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L580" t="inlineStr"/>
       <c r="M580" t="inlineStr"/>
     </row>
     <row r="581">
@@ -22688,7 +21914,7 @@
         <v>1005277.932084795</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22721,7 +21947,7 @@
         <v>932653.1220847946</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22754,7 +21980,7 @@
         <v>981594.8324847945</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22787,7 +22013,7 @@
         <v>1215384.409784795</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22820,7 +22046,7 @@
         <v>1256110.010284794</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22853,7 +22079,7 @@
         <v>1348591.101784795</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22886,7 +22112,7 @@
         <v>1324653.265884795</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22919,7 +22145,7 @@
         <v>1491144.31049349</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22952,7 +22178,7 @@
         <v>1479829.802658607</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22985,7 +22211,7 @@
         <v>1479829.802658607</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -23018,7 +22244,7 @@
         <v>1499729.802658607</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -23051,7 +22277,7 @@
         <v>1416119.462158607</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -23084,7 +22310,7 @@
         <v>1441684.196058607</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -23117,7 +22343,7 @@
         <v>1524395.756058607</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -23150,7 +22376,7 @@
         <v>1524395.756058607</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -23161,6 +22387,6 @@
       <c r="M595" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-21 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1144,17 +1144,11 @@
         <v>-732921.3263</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1183,17 +1177,11 @@
         <v>-732921.3263</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1222,17 +1210,11 @@
         <v>-732921.3263</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1261,17 +1243,11 @@
         <v>-732921.3263</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1300,17 +1276,11 @@
         <v>-732911.3263</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1339,17 +1309,11 @@
         <v>-732911.3263</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1378,17 +1342,11 @@
         <v>-733392.1381</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1417,17 +1375,11 @@
         <v>-733382.1381</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1456,17 +1408,11 @@
         <v>-733382.1381</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1495,17 +1441,11 @@
         <v>-733382.1381</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1534,17 +1474,11 @@
         <v>-733362.1381</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1573,17 +1507,11 @@
         <v>-733362.1381</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1612,17 +1540,11 @@
         <v>-717610.1573</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1651,17 +1573,11 @@
         <v>-718110.1573</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>29.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1694,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1731,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1768,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1805,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1842,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1879,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1916,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1953,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1990,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2027,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2064,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2138,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2175,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2212,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2249,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2286,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2323,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2360,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2397,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2434,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2471,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2508,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2545,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2582,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2619,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2656,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2693,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2730,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2767,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2804,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2841,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2878,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2915,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2952,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2989,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3026,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3063,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3100,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3137,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3174,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3211,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3248,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3285,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3359,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3396,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3433,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3470,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3507,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3544,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3581,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3618,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3655,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3692,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3729,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3766,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3803,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3840,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3877,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3914,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3951,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3988,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4025,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4062,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4099,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4136,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4173,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4210,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4247,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4284,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4321,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4358,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4395,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4432,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4469,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4506,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4580,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4617,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4654,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4691,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4728,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4765,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4802,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4839,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4876,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4913,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4950,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4987,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5024,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5061,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5098,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5135,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5172,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5209,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5246,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5283,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5320,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5357,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5394,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5431,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5468,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5505,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5542,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5579,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5616,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5653,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5690,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5727,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5801,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5838,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5875,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5912,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5949,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5986,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6023,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6060,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6134,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6171,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6208,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6245,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6282,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6319,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6356,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6393,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6430,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6467,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6504,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6541,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6578,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6615,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6652,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6689,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6726,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6763,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6800,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6837,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6874,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6911,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6948,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7022,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7059,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7096,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7133,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7170,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7207,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7244,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7281,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7318,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7355,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7392,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7429,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7466,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7503,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7540,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7577,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7614,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7651,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7688,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7725,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7762,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7799,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7836,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7873,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7910,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7947,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7984,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8021,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8058,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8095,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8132,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8169,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8243,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8280,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8317,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8354,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8391,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8428,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8465,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8502,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8539,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8576,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8613,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8650,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8687,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8724,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8761,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8798,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8835,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8872,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8909,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8946,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8983,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9020,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9057,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9094,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9131,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9168,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9205,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9242,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9279,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9316,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9353,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9390,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9464,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9501,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9538,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9575,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9612,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9649,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9686,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9723,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9760,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9797,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9834,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9871,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9908,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9945,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9982,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10019,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10056,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10093,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10130,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10167,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10204,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10241,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10278,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10315,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10352,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10389,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10422,13 +9394,15 @@
         <v>-1376633.428200001</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -10570,9 +9544,11 @@
         <v>-1378620.588900001</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10607,9 +9583,11 @@
         <v>-1378620.588900001</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10644,9 +9622,11 @@
         <v>-1378620.588900001</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10681,9 +9661,11 @@
         <v>-1378610.588900001</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -10755,9 +9737,11 @@
         <v>-1380528.192400001</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -10792,9 +9776,11 @@
         <v>-1380518.192400001</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10829,9 +9815,11 @@
         <v>-1388037.319100001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -10866,9 +9854,11 @@
         <v>-1388037.319100001</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10903,9 +9893,11 @@
         <v>-1388037.319100001</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10940,9 +9932,11 @@
         <v>-1359330.049500001</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -10977,9 +9971,11 @@
         <v>-1359320.049500001</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -11088,9 +10084,11 @@
         <v>-1352316.274000001</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -11310,9 +10308,11 @@
         <v>-1733716.188000001</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -11532,11 +10532,9 @@
         <v>-1736140.8856</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11571,11 +10569,9 @@
         <v>-1736140.8856</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -11610,11 +10606,9 @@
         <v>-1724831.5544</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11649,11 +10643,9 @@
         <v>-1724831.5544</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11688,11 +10680,9 @@
         <v>-1721875.6709</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -11727,11 +10717,9 @@
         <v>-1720079.6709</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -11766,11 +10754,9 @@
         <v>-1725416.6709</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -11805,11 +10791,9 @@
         <v>-1725416.6709</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -11844,11 +10828,9 @@
         <v>-1726174.164300001</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -11883,11 +10865,9 @@
         <v>-1726174.164300001</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -12033,9 +11013,11 @@
         <v>-1746864.0533</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -12255,11 +11237,9 @@
         <v>-1740686.056700001</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -12331,11 +11311,9 @@
         <v>-1750686.056700001</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -12370,11 +11348,9 @@
         <v>-1750676.056700001</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -12409,11 +11385,9 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -12448,11 +11422,9 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -12487,11 +11459,9 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -12526,11 +11496,9 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -12639,11 +11607,9 @@
         <v>-1847667.024400001</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -12678,11 +11644,9 @@
         <v>-2163389.939800001</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -13087,11 +12051,9 @@
         <v>-1973460.309100001</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -14643,9 +13605,11 @@
         <v>-1845410.695800001</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>29</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -14680,9 +13644,11 @@
         <v>-1848910.695800001</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -14717,9 +13683,11 @@
         <v>-1842257.085300001</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>29</v>
+      </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -14754,9 +13722,11 @@
         <v>-1828857.085300001</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -14791,9 +13761,11 @@
         <v>-1828867.085300001</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -14828,9 +13800,11 @@
         <v>-1824867.085300001</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>29</v>
+      </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -14904,9 +13878,11 @@
         <v>-1835822.728500001</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -14941,9 +13917,11 @@
         <v>-1831822.728500001</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>29</v>
+      </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -14978,9 +13956,11 @@
         <v>-1834425.263500001</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -15015,9 +13995,11 @@
         <v>-1806025.263500001</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>29</v>
+      </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -15208,9 +14190,11 @@
         <v>-1947127.839300001</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>29</v>
+      </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -15245,9 +14229,11 @@
         <v>-1947127.839300001</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>29</v>
+      </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -15282,9 +14268,11 @@
         <v>-1947127.839300001</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>29</v>
+      </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -15319,9 +14307,11 @@
         <v>-1932609.660700001</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>29</v>
+      </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -15356,9 +14346,11 @@
         <v>-1932609.660700001</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
@@ -15393,9 +14385,11 @@
         <v>-1932719.660700001</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -15625,9 +14619,11 @@
         <v>-1856138.579400001</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -15701,9 +14697,11 @@
         <v>-1847548.579400001</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -15777,9 +14775,11 @@
         <v>-1845842.094758363</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>29</v>
+      </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -15814,9 +14814,11 @@
         <v>-1845852.094758363</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -15851,9 +14853,11 @@
         <v>-1845830.241558363</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>29</v>
+      </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
@@ -15888,9 +14892,11 @@
         <v>-1845844.241558363</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -15925,9 +14931,11 @@
         <v>-1845844.241558363</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>29</v>
+      </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -15962,9 +14970,11 @@
         <v>-1845844.241558363</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>29</v>
+      </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -16038,9 +15048,11 @@
         <v>-1833091.572358363</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -16075,9 +15087,11 @@
         <v>-1840926.085858363</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -16229,9 +15243,11 @@
         <v>-1842487.063958363</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -16461,9 +15477,11 @@
         <v>-1762692.479258363</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -16498,9 +15516,11 @@
         <v>-1762813.479258363</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -16652,9 +15672,11 @@
         <v>-1941670.774058363</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -16726,9 +15748,11 @@
         <v>-1941670.774058363</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -16763,9 +15787,11 @@
         <v>-1941670.774058363</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -16837,9 +15863,11 @@
         <v>-1941700.774058363</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>29</v>
+      </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -16874,9 +15902,11 @@
         <v>-1939200.774058363</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>29</v>
+      </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -16948,11 +15978,9 @@
         <v>-1939200.774058363</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -17024,9 +16052,11 @@
         <v>-1939200.774058363</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -17061,9 +16091,11 @@
         <v>-1942162.542758363</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -17098,9 +16130,11 @@
         <v>-1939662.542758363</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>29</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -17135,9 +16169,11 @@
         <v>-1939662.542758363</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -17172,9 +16208,11 @@
         <v>-1939662.542758363</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -17209,9 +16247,11 @@
         <v>-2283364.572858363</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -17320,9 +16360,11 @@
         <v>-2279000.072858363</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -17542,11 +16584,9 @@
         <v>-2521587.225958363</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -17618,11 +16658,9 @@
         <v>-2474587.225958363</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -17657,11 +16695,9 @@
         <v>-2427187.225958363</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -17696,11 +16732,9 @@
         <v>-2427187.225958363</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -19733,18 +18767,16 @@
         <v>-1405961.637973817</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L522" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="inlineStr"/>
     </row>
     <row r="523">
@@ -19774,11 +18806,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19811,11 +18839,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19844,15 +18868,11 @@
         <v>-834441.4862738173</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19881,15 +18901,11 @@
         <v>-1082512.146773817</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19922,11 +18938,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19959,11 +18971,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19996,11 +19004,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20033,11 +19037,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20070,11 +19070,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20107,11 +19103,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20144,11 +19136,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20181,11 +19169,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20218,11 +19202,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20255,11 +19235,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20292,11 +19268,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20329,11 +19301,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20366,11 +19334,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20403,11 +19367,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20440,11 +19400,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20477,11 +19433,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20510,15 +19462,11 @@
         <v>-1020620.701673817</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20547,15 +19495,11 @@
         <v>-1019444.730973817</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20584,15 +19528,11 @@
         <v>-761656.5421738169</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20621,15 +19561,11 @@
         <v>-712478.2318738169</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20658,15 +19594,11 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20695,15 +19627,11 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20732,15 +19660,11 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20769,15 +19693,11 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20806,15 +19726,11 @@
         <v>-414940.3240738169</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20843,15 +19759,11 @@
         <v>-414940.3240738169</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20880,15 +19792,11 @@
         <v>-208314.7475583624</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20917,15 +19825,11 @@
         <v>-377106.6229814854</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20954,15 +19858,11 @@
         <v>-455354.9325814854</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20991,15 +19891,11 @@
         <v>-424051.8760814854</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21032,11 +19928,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21069,11 +19961,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21106,11 +19994,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21143,11 +20027,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21180,11 +20060,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21217,11 +20093,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21254,11 +20126,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21291,11 +20159,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21328,11 +20192,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21365,11 +20225,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21402,11 +20258,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21439,11 +20291,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21476,11 +20324,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21513,11 +20357,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21550,11 +20390,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21587,11 +20423,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21624,11 +20456,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21661,11 +20489,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21698,11 +20522,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21735,11 +20555,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21772,11 +20588,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21809,11 +20621,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21846,11 +20654,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21879,16 +20683,14 @@
         <v>1005277.932084795</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="n">
+        <v>1</v>
+      </c>
       <c r="M580" t="inlineStr"/>
     </row>
     <row r="581">
@@ -21914,7 +20716,7 @@
         <v>1005277.932084795</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21947,7 +20749,7 @@
         <v>932653.1220847946</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21980,7 +20782,7 @@
         <v>981594.8324847945</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22013,7 +20815,7 @@
         <v>1215384.409784795</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22046,7 +20848,7 @@
         <v>1256110.010284794</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22079,7 +20881,7 @@
         <v>1348591.101784795</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22112,7 +20914,7 @@
         <v>1324653.265884795</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22145,7 +20947,7 @@
         <v>1491144.31049349</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22178,7 +20980,7 @@
         <v>1479829.802658607</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22211,7 +21013,7 @@
         <v>1479829.802658607</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22244,7 +21046,7 @@
         <v>1499729.802658607</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22277,7 +21079,7 @@
         <v>1416119.462158607</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22310,7 +21112,7 @@
         <v>1441684.196058607</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22343,7 +21145,7 @@
         <v>1524395.756058607</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22376,7 +21178,7 @@
         <v>1524395.756058607</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22387,6 +21189,6 @@
       <c r="M595" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-21 BackTest LAMB.xlsx
@@ -9394,17 +9394,11 @@
         <v>-1376633.428200001</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9437,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9474,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9511,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9544,17 +9526,11 @@
         <v>-1378620.588900001</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9583,17 +9559,11 @@
         <v>-1378620.588900001</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9622,17 +9592,11 @@
         <v>-1378620.588900001</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9661,17 +9625,11 @@
         <v>-1378610.588900001</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9704,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9737,17 +9691,11 @@
         <v>-1380528.192400001</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9776,17 +9724,11 @@
         <v>-1380518.192400001</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9815,17 +9757,11 @@
         <v>-1388037.319100001</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9854,17 +9790,11 @@
         <v>-1388037.319100001</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9893,17 +9823,11 @@
         <v>-1388037.319100001</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9932,17 +9856,11 @@
         <v>-1359330.049500001</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9971,17 +9889,11 @@
         <v>-1359320.049500001</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10014,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10051,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10084,17 +9988,11 @@
         <v>-1352316.274000001</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10127,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10164,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10201,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10238,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10275,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10308,17 +10186,11 @@
         <v>-1733716.188000001</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10388,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10425,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10462,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10499,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10536,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10573,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10610,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10647,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10684,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10721,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10758,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10795,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10832,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10869,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10906,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10943,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10980,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11013,17 +10813,11 @@
         <v>-1746864.0533</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11056,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11093,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11130,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11167,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11204,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11241,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11278,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11315,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11352,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11389,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11426,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11463,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11500,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11533,15 +11275,15 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J330" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11573,10 +11315,12 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L331" t="n">
@@ -11610,7 +11354,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11647,7 +11393,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11684,7 +11432,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11721,7 +11471,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11758,7 +11510,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11795,7 +11549,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11832,7 +11588,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11869,7 +11627,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11906,7 +11666,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11943,7 +11705,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11980,7 +11744,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12017,7 +11783,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12054,7 +11822,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12091,7 +11861,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12128,7 +11900,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12165,7 +11939,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12202,7 +11978,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12239,7 +12017,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12276,7 +12056,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12313,7 +12095,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12350,7 +12134,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12387,7 +12173,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12424,7 +12212,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12461,7 +12251,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12498,7 +12290,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12535,7 +12329,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12572,7 +12368,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12609,7 +12407,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12646,7 +12446,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12683,7 +12485,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12720,7 +12524,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12757,7 +12563,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12794,7 +12602,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12831,7 +12641,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12868,7 +12680,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12905,7 +12719,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12942,7 +12758,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12979,7 +12797,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13016,7 +12836,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13053,7 +12875,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13090,7 +12914,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13127,7 +12953,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13164,7 +12992,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13201,7 +13031,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13238,7 +13070,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13275,7 +13109,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13312,7 +13148,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13349,7 +13187,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13383,10 +13223,14 @@
         <v>-1838396.740300001</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J380" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13420,10 +13264,14 @@
         <v>-1838374.815700001</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J381" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13457,10 +13305,14 @@
         <v>-1848969.433700001</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J382" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13494,10 +13346,14 @@
         <v>-1848969.433700001</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>29</v>
+      </c>
+      <c r="J383" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13534,7 +13390,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13571,7 +13429,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13605,12 +13465,12 @@
         <v>-1845410.695800001</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>29</v>
-      </c>
-      <c r="J386" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13649,7 +13509,9 @@
       <c r="I387" t="n">
         <v>29.1</v>
       </c>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13688,7 +13550,9 @@
       <c r="I388" t="n">
         <v>29</v>
       </c>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13727,7 +13591,9 @@
       <c r="I389" t="n">
         <v>29.1</v>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13766,7 +13632,9 @@
       <c r="I390" t="n">
         <v>29.2</v>
       </c>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13805,7 +13673,9 @@
       <c r="I391" t="n">
         <v>29</v>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13844,7 +13714,9 @@
       <c r="I392" t="n">
         <v>29.1</v>
       </c>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13883,7 +13755,9 @@
       <c r="I393" t="n">
         <v>29.1</v>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13922,7 +13796,9 @@
       <c r="I394" t="n">
         <v>29</v>
       </c>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13961,7 +13837,9 @@
       <c r="I395" t="n">
         <v>29.1</v>
       </c>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14000,7 +13878,9 @@
       <c r="I396" t="n">
         <v>29</v>
       </c>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14039,7 +13919,9 @@
       <c r="I397" t="n">
         <v>29.1</v>
       </c>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14078,7 +13960,9 @@
       <c r="I398" t="n">
         <v>29</v>
       </c>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14117,7 +14001,9 @@
       <c r="I399" t="n">
         <v>29</v>
       </c>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14156,7 +14042,9 @@
       <c r="I400" t="n">
         <v>29.1</v>
       </c>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14195,7 +14083,9 @@
       <c r="I401" t="n">
         <v>29</v>
       </c>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14229,12 +14119,12 @@
         <v>-1947127.839300001</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>29</v>
-      </c>
-      <c r="J402" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14268,12 +14158,12 @@
         <v>-1947127.839300001</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>29</v>
-      </c>
-      <c r="J403" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14307,12 +14197,12 @@
         <v>-1932609.660700001</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>29</v>
-      </c>
-      <c r="J404" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14346,12 +14236,12 @@
         <v>-1932609.660700001</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J405" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14390,7 +14280,9 @@
       <c r="I406" t="n">
         <v>29.1</v>
       </c>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14429,7 +14321,9 @@
       <c r="I407" t="n">
         <v>28.9</v>
       </c>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14468,7 +14362,9 @@
       <c r="I408" t="n">
         <v>28.9</v>
       </c>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14507,7 +14403,9 @@
       <c r="I409" t="n">
         <v>29.1</v>
       </c>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14546,7 +14444,9 @@
       <c r="I410" t="n">
         <v>28.9</v>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14585,7 +14485,9 @@
       <c r="I411" t="n">
         <v>29.1</v>
       </c>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14624,7 +14526,9 @@
       <c r="I412" t="n">
         <v>29.2</v>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14663,7 +14567,9 @@
       <c r="I413" t="n">
         <v>29.1</v>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14702,7 +14608,9 @@
       <c r="I414" t="n">
         <v>29.3</v>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14741,7 +14649,9 @@
       <c r="I415" t="n">
         <v>29</v>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14780,7 +14690,9 @@
       <c r="I416" t="n">
         <v>29</v>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14819,7 +14731,9 @@
       <c r="I417" t="n">
         <v>29.3</v>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14858,7 +14772,9 @@
       <c r="I418" t="n">
         <v>29</v>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14897,7 +14813,9 @@
       <c r="I419" t="n">
         <v>29.3</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14936,7 +14854,9 @@
       <c r="I420" t="n">
         <v>29</v>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14975,7 +14895,9 @@
       <c r="I421" t="n">
         <v>29</v>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15014,7 +14936,9 @@
       <c r="I422" t="n">
         <v>29</v>
       </c>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15053,7 +14977,9 @@
       <c r="I423" t="n">
         <v>29.1</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15092,7 +15018,9 @@
       <c r="I424" t="n">
         <v>29.1</v>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15131,7 +15059,9 @@
       <c r="I425" t="n">
         <v>29</v>
       </c>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15170,7 +15100,9 @@
       <c r="I426" t="n">
         <v>28.9</v>
       </c>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15209,7 +15141,9 @@
       <c r="I427" t="n">
         <v>28.9</v>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15248,7 +15182,9 @@
       <c r="I428" t="n">
         <v>28.9</v>
       </c>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15287,7 +15223,9 @@
       <c r="I429" t="n">
         <v>29</v>
       </c>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15326,7 +15264,9 @@
       <c r="I430" t="n">
         <v>28.9</v>
       </c>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15365,7 +15305,9 @@
       <c r="I431" t="n">
         <v>29.1</v>
       </c>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15404,7 +15346,9 @@
       <c r="I432" t="n">
         <v>29.1</v>
       </c>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15443,7 +15387,9 @@
       <c r="I433" t="n">
         <v>29</v>
       </c>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15482,7 +15428,9 @@
       <c r="I434" t="n">
         <v>29.2</v>
       </c>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15521,7 +15469,9 @@
       <c r="I435" t="n">
         <v>29.2</v>
       </c>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15560,7 +15510,9 @@
       <c r="I436" t="n">
         <v>29</v>
       </c>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15599,7 +15551,9 @@
       <c r="I437" t="n">
         <v>29.2</v>
       </c>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15633,12 +15587,12 @@
         <v>-1757454.479258363</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J438" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15677,7 +15631,9 @@
       <c r="I439" t="n">
         <v>29.2</v>
       </c>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15714,7 +15670,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15748,12 +15706,12 @@
         <v>-1941670.774058363</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J441" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15787,12 +15745,12 @@
         <v>-1941670.774058363</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J442" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15829,7 +15787,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15863,12 +15823,12 @@
         <v>-1941700.774058363</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>29</v>
-      </c>
-      <c r="J444" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15907,7 +15867,9 @@
       <c r="I445" t="n">
         <v>29</v>
       </c>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15941,10 +15903,14 @@
         <v>-1939200.774058363</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J446" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15978,10 +15944,14 @@
         <v>-1939200.774058363</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J447" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16015,10 +15985,14 @@
         <v>-1939200.774058363</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J448" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16057,7 +16031,9 @@
       <c r="I449" t="n">
         <v>29.2</v>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16096,7 +16072,9 @@
       <c r="I450" t="n">
         <v>29.2</v>
       </c>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16135,7 +16113,9 @@
       <c r="I451" t="n">
         <v>29</v>
       </c>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16174,7 +16154,9 @@
       <c r="I452" t="n">
         <v>29.2</v>
       </c>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16213,7 +16195,9 @@
       <c r="I453" t="n">
         <v>29.2</v>
       </c>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16247,12 +16231,12 @@
         <v>-2283364.572858363</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J454" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16289,7 +16273,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16326,7 +16312,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16360,12 +16348,12 @@
         <v>-2279000.072858363</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J457" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16402,7 +16390,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16439,7 +16429,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16476,7 +16468,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16513,7 +16507,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16550,7 +16546,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16587,7 +16585,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16624,7 +16624,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16661,7 +16663,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16698,7 +16702,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16735,7 +16741,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16772,7 +16780,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16809,7 +16819,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16846,7 +16858,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16883,7 +16897,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16920,7 +16936,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16957,7 +16975,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16994,7 +17014,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17031,7 +17053,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17068,7 +17092,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17105,7 +17131,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17142,7 +17170,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17179,7 +17209,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17216,7 +17248,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17253,7 +17287,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17290,7 +17326,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17327,7 +17365,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17364,7 +17404,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17401,7 +17443,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17438,7 +17482,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17475,7 +17521,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17512,7 +17560,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17549,7 +17599,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17586,7 +17638,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17623,7 +17677,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17660,7 +17716,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17697,7 +17755,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17734,7 +17794,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17771,7 +17833,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17808,7 +17872,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17845,7 +17911,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17882,7 +17950,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17919,7 +17989,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17956,7 +18028,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17993,7 +18067,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18030,7 +18106,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18067,7 +18145,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18104,7 +18184,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18141,7 +18223,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18178,7 +18262,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18215,7 +18301,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18252,7 +18340,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18289,7 +18379,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18326,7 +18418,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18363,7 +18457,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18400,7 +18496,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18437,7 +18535,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18474,7 +18574,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18511,7 +18613,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18548,7 +18652,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18585,7 +18691,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18622,7 +18730,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18659,7 +18769,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18696,7 +18808,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18733,7 +18847,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18767,16 +18883,20 @@
         <v>-1405961.637973817</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L522" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L522" t="n">
+        <v>1</v>
+      </c>
       <c r="M522" t="inlineStr"/>
     </row>
     <row r="523">
@@ -18805,8 +18925,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18838,8 +18964,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18868,11 +19000,17 @@
         <v>-834441.4862738173</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18901,11 +19039,17 @@
         <v>-1082512.146773817</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18937,8 +19081,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18970,8 +19120,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19003,8 +19159,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19036,8 +19198,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19069,8 +19237,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19102,8 +19276,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19135,8 +19315,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19168,8 +19354,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19201,8 +19393,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19234,8 +19432,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19267,8 +19471,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19300,8 +19510,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19333,8 +19549,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19366,8 +19588,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19399,8 +19627,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19432,8 +19666,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19462,11 +19702,17 @@
         <v>-1020620.701673817</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19495,11 +19741,17 @@
         <v>-1019444.730973817</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19528,11 +19780,17 @@
         <v>-761656.5421738169</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19561,11 +19819,17 @@
         <v>-712478.2318738169</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19594,11 +19858,17 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19627,11 +19897,17 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19660,11 +19936,17 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19693,11 +19975,17 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19726,11 +20014,17 @@
         <v>-414940.3240738169</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19759,11 +20053,17 @@
         <v>-414940.3240738169</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19792,11 +20092,17 @@
         <v>-208314.7475583624</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19825,11 +20131,17 @@
         <v>-377106.6229814854</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19858,11 +20170,17 @@
         <v>-455354.9325814854</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19891,11 +20209,17 @@
         <v>-424051.8760814854</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19927,8 +20251,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19960,8 +20290,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19993,8 +20329,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20026,8 +20368,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20059,8 +20407,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20092,8 +20446,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20125,8 +20485,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20158,8 +20524,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20191,8 +20563,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20224,8 +20602,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20257,8 +20641,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20290,8 +20680,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20323,8 +20719,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20356,8 +20758,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20389,8 +20797,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20422,8 +20836,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20455,8 +20875,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20488,8 +20914,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20521,8 +20953,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20554,8 +20992,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20584,15 +21028,23 @@
         <v>1616612.971584795</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L577" t="n">
-        <v>1</v>
-      </c>
-      <c r="M577" t="inlineStr"/>
+        <v>1.190876288659794</v>
+      </c>
+      <c r="M577" t="n">
+        <v>1.038062283737024</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -20617,7 +21069,7 @@
         <v>1549439.256684795</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20650,7 +21102,7 @@
         <v>1549439.256684795</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20683,7 +21135,7 @@
         <v>1005277.932084795</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20716,7 +21168,7 @@
         <v>1005277.932084795</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20749,7 +21201,7 @@
         <v>932653.1220847946</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20848,7 +21300,7 @@
         <v>1256110.010284794</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20881,7 +21333,7 @@
         <v>1348591.101784795</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20914,7 +21366,7 @@
         <v>1324653.265884795</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20947,7 +21399,7 @@
         <v>1491144.31049349</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20980,7 +21432,7 @@
         <v>1479829.802658607</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21013,7 +21465,7 @@
         <v>1479829.802658607</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21046,7 +21498,7 @@
         <v>1499729.802658607</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21079,7 +21531,7 @@
         <v>1416119.462158607</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21112,7 +21564,7 @@
         <v>1441684.196058607</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21145,7 +21597,7 @@
         <v>1524395.756058607</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21178,7 +21630,7 @@
         <v>1524395.756058607</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
